--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B505CFC-C53D-5844-8048-C9F2A7B22EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DEE8DD-05DD-9141-9E27-AF98B2E53894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>euro/kWh</t>
   </si>
@@ -145,16 +144,7 @@
     <t>id_scenario</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>wholesale price from PSz-XI (2023)</t>
-  </si>
-  <si>
-    <t>wholesale price from PSz-XI (2024)</t>
-  </si>
-  <si>
-    <t>wholesale price from PSz-XI (2024) - sensitivity run for MMS</t>
+    <t>id_sector</t>
   </si>
 </sst>
 </file>
@@ -162,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -195,107 +185,107 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,11 +301,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AJ25" totalsRowShown="0">
-  <autoFilter ref="A1:AJ25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AK17" totalsRowShown="0">
+  <autoFilter ref="A1:AK17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
+    <tableColumn id="3" xr3:uid="{1420788D-CCBC-C54D-BB2E-6D34CC34C900}" name="id_sector"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_energy_carrier"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="31"/>
@@ -618,22 +609,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -641,109 +632,112 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -751,109 +745,112 @@
         <v>9</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.27239999999999998</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.2893102287382881</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.28620579422845271</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.36583232656913367</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.44377798262936158</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.3408795727764326</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0.29844643389338155</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>0.27870424408711525</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>0.26406947068297998</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>0.25961997527047004</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>0.25466789163258652</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>0.25162191511634963</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>0.24436682147144859</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>0.23712769751876733</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>0.22990422386446158</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>0.22269608750256381</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>0.21550298168722576</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>0.21268957803546309</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>0.20989060972061643</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>0.20710578803594751</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>0.20433483004885264</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>0.20157745848538053</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>0.20382001183120677</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>0.20607561357828016</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>0.20834400275857581</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>0.2106249236234293</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>0.21291812553914952</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>0.21506074795712402</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>0.21721516509635094</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>0.21938114106240519</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>0.22155844467875013</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AK2" s="1">
         <v>0.22374684939238004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -861,109 +858,112 @@
         <v>9</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>7.4162839057389032E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>5.9270793267966984E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>8.6844213682472068E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>9.987405364380024E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>8.9848186169571506E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>8.0709805803888562E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>7.4545217103161129E-2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>6.968777153502935E-2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>6.5984808790841606E-2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>6.4308412595709019E-2</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>6.32016756145867E-2</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>6.2094938633464367E-2</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>6.1968961426494336E-2</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>6.1842984219524298E-2</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>6.1717007012554274E-2</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>6.1591029805584237E-2</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>6.1465052598614199E-2</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>6.1339075391644175E-2</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>6.1213098184674145E-2</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>6.1087120977704121E-2</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>6.0961143770734083E-2</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>6.0835166563764059E-2</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>6.0709189356794022E-2</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>6.0583212149823984E-2</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>6.045723494285396E-2</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AE3" s="1">
         <v>6.0331257735883922E-2</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <v>6.0205280528913899E-2</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG3" s="1">
         <v>6.0079303321943882E-2</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AH3" s="1">
         <v>5.9953326114973844E-2</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <v>5.9827348908003807E-2</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AJ3" s="1">
         <v>5.9701371701033769E-2</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AK3" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -971,109 +971,112 @@
         <v>9</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>4.8598360515137926E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>4.9794752608679535E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>5.1039503251346256E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>9.5513027767655176E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.14900315456786425</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.11232937738230503</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>8.943430122584814E-2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>7.5667559065261236E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>7.122030604096162E-2</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>6.6773053016662018E-2</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>6.2325799992362409E-2</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>5.78785469680628E-2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>5.7608665017664769E-2</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>5.7338783067266745E-2</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>5.7068901116868728E-2</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>5.6799019166470698E-2</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>5.6529137216072674E-2</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>5.625925526567465E-2</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>5.5989373315276633E-2</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>5.5719491364878602E-2</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>5.5449609414480572E-2</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>5.5179727464082555E-2</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>5.4909845513684538E-2</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>5.4639963563286501E-2</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>5.4370081612888477E-2</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>5.410019966249046E-2</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>5.3830317712092429E-2</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>5.3560435761694405E-2</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>5.3290553811296382E-2</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>5.3020671860898365E-2</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>5.2750789910500334E-2</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <v>5.2480907960102297E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1081,13 +1084,13 @@
         <v>9</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.5399544155988694E-2</v>
+      <c r="E5" t="s">
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>4.5399544155988694E-2</v>
@@ -1099,91 +1102,94 @@
         <v>4.5399544155988694E-2</v>
       </c>
       <c r="I5" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="J5" s="1">
         <v>3.9178703664221291E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>3.3508530309731971E-2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>2.9683532312984855E-2</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>2.6669589214847626E-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>2.4371978495599467E-2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>2.3331809816157813E-2</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>2.2645102731349488E-2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>2.1958395646541159E-2</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>2.1880229431779856E-2</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>2.1802063217018549E-2</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>2.1723897002257249E-2</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>2.1645730787495942E-2</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>2.1567564572734638E-2</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>2.1489398357973338E-2</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>2.1411232143212035E-2</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>2.1333065928450728E-2</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>2.1254899713689424E-2</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>2.1176733498928124E-2</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>2.1098567284166821E-2</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>2.1020401069405517E-2</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="1">
         <v>2.0942234854644214E-2</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <v>2.0864068639882907E-2</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>2.0785902425121603E-2</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>2.0707736210360303E-2</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>2.0629569995598999E-2</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>2.0551403780837692E-2</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>2.0473237566076389E-2</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>2.0395071351315082E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1191,109 +1197,112 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>2.7524738675958185E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2.2556969990226838E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>3.1754821549842736E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.10958510374377319</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>7.2658491665106781E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>6.4501477723212033E-2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>6.0073624291528939E-2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>5.6136906748470543E-2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>5.1717656628571564E-2</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>4.6367091247547822E-2</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>4.0848079140500038E-2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>3.5190601172069187E-2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>3.5438278161137753E-2</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>3.5837228383439251E-2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>3.6179765454107608E-2</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>3.6693132734865901E-2</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>3.7162557637233112E-2</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>3.7273421564079735E-2</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>3.7295868844609774E-2</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>3.7432453541312E-2</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>3.7480314960956801E-2</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>3.76264025404459E-2</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>3.7001807421689667E-2</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>3.6396439214074351E-2</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>3.5910855944227181E-2</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>3.5339752285810287E-2</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>3.4868474205940726E-2</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>3.4349980576485084E-2</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>3.3927505295104E-2</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>3.3418274176172831E-2</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AJ6" s="1">
         <v>3.3018851102917787E-2</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>3.2532636521895537E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1301,109 +1310,112 @@
         <v>9</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.104</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.106</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.107</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.108</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>0.109</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>0.111</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>0.113</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>0.12</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>0.121</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>0.122</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>0.123</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>0.124</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>0.127</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>0.129</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>0.13</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
         <v>0.13900000000000001</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE7" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AJ7" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK7" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1411,12 +1423,12 @@
         <v>9</v>
       </c>
       <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="E8" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1">
@@ -1512,8 +1524,11 @@
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1521,331 +1536,340 @@
         <v>9</v>
       </c>
       <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>7.4162839057389032E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>5.9270793267966984E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>8.6844213682472068E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>9.987405364380024E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>8.9848186169571506E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>8.0709805803888562E-2</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>7.4545217103161129E-2</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>6.968777153502935E-2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>6.5984808790841606E-2</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>6.4308412595709019E-2</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>6.32016756145867E-2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>6.2094938633464367E-2</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>6.1968961426494336E-2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>6.1842984219524298E-2</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>6.1717007012554274E-2</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>6.1591029805584237E-2</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>6.1465052598614199E-2</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>6.1339075391644175E-2</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>6.1213098184674145E-2</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>6.1087120977704121E-2</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>6.0961143770734083E-2</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>6.0835166563764059E-2</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>6.0709189356794022E-2</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>6.0583212149823984E-2</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>6.045723494285396E-2</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>6.0331257735883922E-2</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>6.0205280528913899E-2</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>6.0079303321943882E-2</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>5.9953326114973844E-2</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>5.9827348908003807E-2</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>5.9701371701033769E-2</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.27239999999999998</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.26946716665463821</v>
-      </c>
       <c r="G10" s="1">
-        <v>0.26657565751208739</v>
+        <v>0.2893102287382881</v>
       </c>
       <c r="H10" s="1">
-        <v>0.2671</v>
+        <v>0.28620579422845271</v>
       </c>
       <c r="I10" s="1">
-        <v>0.27274218855138221</v>
+        <v>0.36583232656913367</v>
       </c>
       <c r="J10" s="1">
-        <v>0.27486109546686777</v>
+        <v>0.44377798262936158</v>
       </c>
       <c r="K10" s="1">
-        <v>0.25404792679280719</v>
+        <v>0.3408795727764326</v>
       </c>
       <c r="L10" s="1">
-        <v>0.23955004161754534</v>
+        <v>0.29844643389338155</v>
       </c>
       <c r="M10" s="1">
-        <v>0.23045537920531062</v>
+        <v>0.27870424408711525</v>
       </c>
       <c r="N10" s="1">
-        <v>0.22685231910439743</v>
+        <v>0.26406947068297998</v>
       </c>
       <c r="O10" s="1">
-        <v>0.22624172458576297</v>
+        <v>0.25961997527047004</v>
       </c>
       <c r="P10" s="1">
-        <v>0.22728576789468943</v>
+        <v>0.25466789163258652</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.22706059585950153</v>
+        <v>0.25162191511634963</v>
       </c>
       <c r="R10" s="1">
-        <v>0.22685067153984048</v>
+        <v>0.24436682147144859</v>
       </c>
       <c r="S10" s="1">
-        <v>0.22665568998139576</v>
+        <v>0.23712769751876733</v>
       </c>
       <c r="T10" s="1">
-        <v>0.22647535232894309</v>
+        <v>0.22990422386446158</v>
       </c>
       <c r="U10" s="1">
-        <v>0.22630936570436255</v>
+        <v>0.22269608750256381</v>
       </c>
       <c r="V10" s="1">
-        <v>0.22402387623530795</v>
+        <v>0.21550298168722576</v>
       </c>
       <c r="W10" s="1">
-        <v>0.22175216949342172</v>
+        <v>0.21268957803546309</v>
       </c>
       <c r="X10" s="1">
-        <v>0.21949396982416056</v>
+        <v>0.20989060972061643</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.21724900708607203</v>
+        <v>0.20710578803594751</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.21501701654053251</v>
+        <v>0.20433483004885264</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.21521124065829664</v>
+        <v>0.20157745848538053</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.21541792326978496</v>
+        <v>0.20382001183120677</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.21563681520512296</v>
+        <v>0.20607561357828016</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.2158676722778336</v>
+        <v>0.20834400275857581</v>
       </c>
       <c r="AE10" s="1">
-        <v>0.21611025518516952</v>
+        <v>0.2106249236234293</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.21598637169490567</v>
+        <v>0.21291812553914952</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.21587374969621598</v>
+        <v>0.21506074795712402</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.21577216395926879</v>
+        <v>0.21721516509635094</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.21568139375882941</v>
+        <v>0.21938114106240519</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.21560122278416757</v>
+        <v>0.22155844467875013</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0.22374684939238004</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6.6818389565484471E-2</v>
+      <c r="E11" t="s">
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>5.3817337425253187E-2</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>6.8680127490075737E-2</v>
+        <v>5.9270793267966984E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>0.11492467170353902</v>
+        <v>8.6844213682472068E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>8.6143414756508427E-2</v>
+        <v>9.987405364380024E-2</v>
       </c>
       <c r="J11" s="1">
-        <v>7.3117425680779183E-2</v>
+        <v>8.9848186169571506E-2</v>
       </c>
       <c r="K11" s="1">
-        <v>6.8003976337735889E-2</v>
+        <v>8.0709805803888562E-2</v>
       </c>
       <c r="L11" s="1">
-        <v>6.403115257464792E-2</v>
+        <v>7.4545217103161129E-2</v>
       </c>
       <c r="M11" s="1">
-        <v>6.0708007458649252E-2</v>
+        <v>6.968777153502935E-2</v>
       </c>
       <c r="N11" s="1">
-        <v>5.8304457117500291E-2</v>
+        <v>6.5984808790841606E-2</v>
       </c>
       <c r="O11" s="1">
-        <v>5.6400735752744811E-2</v>
+        <v>6.4308412595709019E-2</v>
       </c>
       <c r="P11" s="1">
-        <v>5.5092548149339379E-2</v>
+        <v>6.32016756145867E-2</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.4651112663650872E-2</v>
+        <v>6.2094938633464367E-2</v>
       </c>
       <c r="R11" s="1">
-        <v>5.4209677177962365E-2</v>
+        <v>6.1968961426494336E-2</v>
       </c>
       <c r="S11" s="1">
-        <v>5.3768241692273858E-2</v>
+        <v>6.1842984219524298E-2</v>
       </c>
       <c r="T11" s="1">
-        <v>5.3326806206585357E-2</v>
+        <v>6.1717007012554274E-2</v>
       </c>
       <c r="U11" s="1">
-        <v>5.288537072089685E-2</v>
+        <v>6.1591029805584237E-2</v>
       </c>
       <c r="V11" s="1">
-        <v>5.2443935235208343E-2</v>
+        <v>6.1465052598614199E-2</v>
       </c>
       <c r="W11" s="1">
-        <v>5.2002499749519836E-2</v>
+        <v>6.1339075391644175E-2</v>
       </c>
       <c r="X11" s="1">
-        <v>5.1561064263831329E-2</v>
+        <v>6.1213098184674145E-2</v>
       </c>
       <c r="Y11" s="1">
-        <v>5.1119628778142821E-2</v>
+        <v>6.1087120977704121E-2</v>
       </c>
       <c r="Z11" s="1">
-        <v>5.0678193292454321E-2</v>
+        <v>6.0961143770734083E-2</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.0236757806765814E-2</v>
+        <v>6.0835166563764059E-2</v>
       </c>
       <c r="AB11" s="1">
-        <v>4.9795322321077314E-2</v>
+        <v>6.0709189356794022E-2</v>
       </c>
       <c r="AC11" s="1">
-        <v>4.9353886835388806E-2</v>
+        <v>6.0583212149823984E-2</v>
       </c>
       <c r="AD11" s="1">
-        <v>4.8912451349700299E-2</v>
+        <v>6.045723494285396E-2</v>
       </c>
       <c r="AE11" s="1">
-        <v>4.8471015864011792E-2</v>
+        <v>6.0331257735883922E-2</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.8029580378323285E-2</v>
+        <v>6.0205280528913899E-2</v>
       </c>
       <c r="AG11" s="1">
-        <v>4.7588144892634777E-2</v>
+        <v>6.0079303321943882E-2</v>
       </c>
       <c r="AH11" s="1">
-        <v>4.7146709406946277E-2</v>
+        <v>5.9953326114973844E-2</v>
       </c>
       <c r="AI11" s="1">
-        <v>4.670527392125777E-2</v>
+        <v>5.9827348908003807E-2</v>
       </c>
       <c r="AJ11" s="1">
-        <v>4.626383843556927E-2</v>
+        <v>5.9701371701033769E-2</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -1853,121 +1877,124 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4.5265121005871115E-2</v>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>4.6379455570053789E-2</v>
+        <v>4.8598360515137926E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>4.7538831891913332E-2</v>
+        <v>4.9794752608679535E-2</v>
       </c>
       <c r="H12" s="1">
-        <v>6.3102315738991832E-2</v>
+        <v>5.1039503251346256E-2</v>
       </c>
       <c r="I12" s="1">
-        <v>9.489835637837496E-2</v>
+        <v>9.5513027767655176E-2</v>
       </c>
       <c r="J12" s="1">
-        <v>9.0529244148575855E-2</v>
+        <v>0.14900315456786425</v>
       </c>
       <c r="K12" s="1">
-        <v>8.0728058143108614E-2</v>
+        <v>0.11232937738230503</v>
       </c>
       <c r="L12" s="1">
-        <v>6.7865980832658199E-2</v>
+        <v>8.943430122584814E-2</v>
       </c>
       <c r="M12" s="1">
-        <v>6.1246512628665851E-2</v>
+        <v>7.5667559065261236E-2</v>
       </c>
       <c r="N12" s="1">
-        <v>5.7823550972027161E-2</v>
+        <v>7.122030604096162E-2</v>
       </c>
       <c r="O12" s="1">
-        <v>5.4400589315388465E-2</v>
+        <v>6.6773053016662018E-2</v>
       </c>
       <c r="P12" s="1">
-        <v>5.0977627658749775E-2</v>
+        <v>6.2325799992362409E-2</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.0749212241988237E-2</v>
+        <v>5.78785469680628E-2</v>
       </c>
       <c r="R12" s="1">
-        <v>5.0520796825226699E-2</v>
+        <v>5.7608665017664769E-2</v>
       </c>
       <c r="S12" s="1">
-        <v>5.0292381408465169E-2</v>
+        <v>5.7338783067266745E-2</v>
       </c>
       <c r="T12" s="1">
-        <v>5.0063965991703631E-2</v>
+        <v>5.7068901116868728E-2</v>
       </c>
       <c r="U12" s="1">
-        <v>4.9835550574942093E-2</v>
+        <v>5.6799019166470698E-2</v>
       </c>
       <c r="V12" s="1">
-        <v>4.9607135158180556E-2</v>
+        <v>5.6529137216072674E-2</v>
       </c>
       <c r="W12" s="1">
-        <v>4.9378719741419025E-2</v>
+        <v>5.625925526567465E-2</v>
       </c>
       <c r="X12" s="1">
-        <v>4.9150304324657487E-2</v>
+        <v>5.5989373315276633E-2</v>
       </c>
       <c r="Y12" s="1">
-        <v>4.892188890789595E-2</v>
+        <v>5.5719491364878602E-2</v>
       </c>
       <c r="Z12" s="1">
-        <v>4.8693473491134412E-2</v>
+        <v>5.5449609414480572E-2</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.8465058074372881E-2</v>
+        <v>5.5179727464082555E-2</v>
       </c>
       <c r="AB12" s="1">
-        <v>4.8236642657611344E-2</v>
+        <v>5.4909845513684538E-2</v>
       </c>
       <c r="AC12" s="1">
-        <v>4.8008227240849806E-2</v>
+        <v>5.4639963563286501E-2</v>
       </c>
       <c r="AD12" s="1">
-        <v>4.7779811824088268E-2</v>
+        <v>5.4370081612888477E-2</v>
       </c>
       <c r="AE12" s="1">
-        <v>4.7551396407326738E-2</v>
+        <v>5.410019966249046E-2</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.7322980990565193E-2</v>
+        <v>5.3830317712092429E-2</v>
       </c>
       <c r="AG12" s="1">
-        <v>4.7094565573803662E-2</v>
+        <v>5.3560435761694405E-2</v>
       </c>
       <c r="AH12" s="1">
-        <v>4.6866150157042125E-2</v>
+        <v>5.3290553811296382E-2</v>
       </c>
       <c r="AI12" s="1">
-        <v>4.6637734740280594E-2</v>
+        <v>5.3020671860898365E-2</v>
       </c>
       <c r="AJ12" s="1">
-        <v>4.6409319323519056E-2</v>
+        <v>5.2750789910500334E-2</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>5.2480907960102297E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4.5399544155988694E-2</v>
+      <c r="E13" t="s">
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>4.5399544155988694E-2</v>
@@ -1979,324 +2006,333 @@
         <v>4.5399544155988694E-2</v>
       </c>
       <c r="I13" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="J13" s="1">
         <v>3.9178703664221291E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>3.3508530309731971E-2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>2.9683532312984855E-2</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>2.6669589214847626E-2</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>2.4371978495599467E-2</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>2.3331809816157813E-2</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>2.2645102731349488E-2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>2.1958395646541159E-2</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>2.1880229431779856E-2</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>2.1802063217018549E-2</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>2.1723897002257249E-2</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>2.1645730787495942E-2</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>2.1567564572734638E-2</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>2.1489398357973338E-2</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>2.1411232143212035E-2</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>2.1333065928450728E-2</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>2.1254899713689424E-2</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>2.1176733498928124E-2</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>2.1098567284166821E-2</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>2.1020401069405517E-2</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>2.0942234854644214E-2</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <v>2.0864068639882907E-2</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AF13" s="1">
         <v>2.0785902425121603E-2</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <v>2.0707736210360303E-2</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <v>2.0629569995598999E-2</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AI13" s="1">
         <v>2.0551403780837692E-2</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AJ13" s="1">
         <v>2.0473237566076389E-2</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AK13" s="1">
         <v>2.0395071351315082E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <v>2.7524738675958185E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>2.2556969990226838E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>3.1754821549842736E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.10958510374377319</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>7.2658491665106781E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>6.4501477723212033E-2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>6.0073624291528939E-2</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>5.6136906748470543E-2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>5.1717656628571564E-2</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>4.6367091247547822E-2</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>4.0848079140500038E-2</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>3.5190601172069187E-2</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>3.5438278161137753E-2</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>3.5837228383439251E-2</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>3.6179765454107608E-2</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>3.6693132734865901E-2</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>3.7162557637233112E-2</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>3.7273421564079735E-2</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>3.7295868844609774E-2</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>3.7432453541312E-2</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>3.7480314960956801E-2</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>3.76264025404459E-2</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>3.7001807421689667E-2</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <v>3.6396439214074351E-2</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AD14" s="1">
         <v>3.5910855944227181E-2</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AE14" s="1">
         <v>3.5339752285810287E-2</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <v>3.4868474205940726E-2</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <v>3.4349980576485084E-2</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>3.3927505295104E-2</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>3.3418274176172831E-2</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AJ14" s="1">
         <v>3.3018851102917787E-2</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AK14" s="1">
         <v>3.2532636521895537E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>0.104</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>0.106</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.107</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>0.108</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>0.109</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>0.111</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>0.113</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>0.12</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>0.121</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>0.122</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>0.123</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <v>0.124</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>0.127</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>0.129</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>0.13</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AC15" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <v>0.13900000000000001</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AJ15" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AK15" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="E16" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="1">
@@ -2392,994 +2428,120 @@
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>7.4162839057389032E-2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>5.9270793267966984E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>8.6844213682472068E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>9.987405364380024E-2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>8.9848186169571506E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>8.0709805803888562E-2</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>7.4545217103161129E-2</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>6.968777153502935E-2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>6.5984808790841606E-2</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>6.4308412595709019E-2</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>6.32016756145867E-2</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>6.2094938633464367E-2</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>6.1968961426494336E-2</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>6.1842984219524298E-2</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>6.1717007012554274E-2</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>6.1591029805584237E-2</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>6.1465052598614199E-2</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>6.1339075391644175E-2</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>6.1213098184674145E-2</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>6.1087120977704121E-2</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>6.0961143770734083E-2</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>6.0835166563764059E-2</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>6.0709189356794022E-2</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <v>6.0583212149823984E-2</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <v>6.045723494285396E-2</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <v>6.0331257735883922E-2</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <v>6.0205280528913899E-2</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <v>6.0079303321943882E-2</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>5.9953326114973844E-2</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <v>5.9827348908003807E-2</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AJ17" s="1">
         <v>5.9701371701033769E-2</v>
       </c>
-      <c r="AJ17" s="1">
-        <v>5.9575394494063731E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.27239999999999998</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.26946716665463821</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.26657565751208739</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.2671</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.27274218855138221</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.25687115280577005</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.23899296304003415</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.23036503568142155</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0.2288717574921858</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0.23005123496490953</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0.2338114363744995</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.23621739435671327</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0.23598166484343788</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0.23581397043612684</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.2350488850609572</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0.2339922767272421</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0.23289723203096171</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0.22998673985912721</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0.22709003041446107</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0.22420682804241995</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0.2213368626015515</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0.2184798693532321</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>0.21833625417219629</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0.21820509748488459</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0.2180861501214226</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>0.21797916789533331</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>0.21788391150386927</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>0.21742007721918799</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>0.21696750442608081</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>0.21652596789471618</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0.21609524689985934</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>0.21560122278416757</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>6.6818389565484471E-2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5.3817337425253187E-2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>6.8680127490075737E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.11492467170353902</v>
-      </c>
-      <c r="I19" s="1">
-        <v>8.6143414756508413E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>7.9052378693983794E-2</v>
-      </c>
-      <c r="K19" s="1">
-        <v>7.8782667368909598E-2</v>
-      </c>
-      <c r="L19" s="1">
-        <v>7.8512956043835389E-2</v>
-      </c>
-      <c r="M19" s="1">
-        <v>7.8243244718761179E-2</v>
-      </c>
-      <c r="N19" s="1">
-        <v>7.7973533393686956E-2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>7.7703822068612732E-2</v>
-      </c>
-      <c r="P19" s="1">
-        <v>7.7434110743538509E-2</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>7.6781336152229207E-2</v>
-      </c>
-      <c r="R19" s="1">
-        <v>7.6128561560919891E-2</v>
-      </c>
-      <c r="S19" s="1">
-        <v>7.5475786969610575E-2</v>
-      </c>
-      <c r="T19" s="1">
-        <v>7.4823012378301273E-2</v>
-      </c>
-      <c r="U19" s="1">
-        <v>7.4170237786991972E-2</v>
-      </c>
-      <c r="V19" s="1">
-        <v>7.351746319568267E-2</v>
-      </c>
-      <c r="W19" s="1">
-        <v>7.286468860437334E-2</v>
-      </c>
-      <c r="X19" s="1">
-        <v>7.2211914013064052E-2</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>7.1559139421754736E-2</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>7.0906364830445448E-2</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>7.0253590239136118E-2</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>6.9600815647826816E-2</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>6.8948041056517501E-2</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>6.8295266465208199E-2</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>6.7642491873898897E-2</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>6.6989717282589581E-2</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>6.6336942691280265E-2</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>6.5684168099970963E-2</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>6.5031393508661647E-2</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>6.4378618917352345E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4.5265121005871115E-2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4.6379455570053796E-2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4.7538831891913332E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>6.3102315738991832E-2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>9.4898356378374946E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>6.1465458193254496E-2</v>
-      </c>
-      <c r="K20" s="1">
-        <v>6.0612734053074289E-2</v>
-      </c>
-      <c r="L20" s="1">
-        <v>6.038415107945809E-2</v>
-      </c>
-      <c r="M20" s="1">
-        <v>6.0155568105841904E-2</v>
-      </c>
-      <c r="N20" s="1">
-        <v>5.9926985132225691E-2</v>
-      </c>
-      <c r="O20" s="1">
-        <v>5.9698402158609512E-2</v>
-      </c>
-      <c r="P20" s="1">
-        <v>5.9469819184993292E-2</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>5.8816794191919576E-2</v>
-      </c>
-      <c r="R20" s="1">
-        <v>5.8163769198845867E-2</v>
-      </c>
-      <c r="S20" s="1">
-        <v>5.7510744205772145E-2</v>
-      </c>
-      <c r="T20" s="1">
-        <v>5.6857719212698436E-2</v>
-      </c>
-      <c r="U20" s="1">
-        <v>5.6204694219624721E-2</v>
-      </c>
-      <c r="V20" s="1">
-        <v>5.5551669226551005E-2</v>
-      </c>
-      <c r="W20" s="1">
-        <v>5.4898644233477303E-2</v>
-      </c>
-      <c r="X20" s="1">
-        <v>5.4245619240403581E-2</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>5.3592594247329872E-2</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>5.293956925425615E-2</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>5.2286544261182441E-2</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>5.1633519268108739E-2</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>5.0980494275035017E-2</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>5.0327469281961301E-2</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>4.9674444288887593E-2</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>4.9021419295813877E-2</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>4.8368394302740168E-2</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>4.7715369309666453E-2</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>4.7062344316592744E-2</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>4.6409319323519049E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4.5399544155988694E-2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4.5399544155988694E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4.5399544155988694E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4.5399544155988694E-2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>3.9178703664221291E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3.3508530309731971E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2.9683532312984855E-2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>2.6669589214847626E-2</v>
-      </c>
-      <c r="M21" s="1">
-        <v>2.4371978495599467E-2</v>
-      </c>
-      <c r="N21" s="1">
-        <v>2.3331809816157813E-2</v>
-      </c>
-      <c r="O21" s="1">
-        <v>2.2645102731349488E-2</v>
-      </c>
-      <c r="P21" s="1">
-        <v>2.1958395646541159E-2</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>2.1880229431779856E-2</v>
-      </c>
-      <c r="R21" s="1">
-        <v>2.1802063217018549E-2</v>
-      </c>
-      <c r="S21" s="1">
-        <v>2.1723897002257249E-2</v>
-      </c>
-      <c r="T21" s="1">
-        <v>2.1645730787495942E-2</v>
-      </c>
-      <c r="U21" s="1">
-        <v>2.1567564572734638E-2</v>
-      </c>
-      <c r="V21" s="1">
-        <v>2.1489398357973338E-2</v>
-      </c>
-      <c r="W21" s="1">
-        <v>2.1411232143212035E-2</v>
-      </c>
-      <c r="X21" s="1">
-        <v>2.1333065928450728E-2</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>2.1254899713689424E-2</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>2.1176733498928124E-2</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>2.1098567284166821E-2</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>2.1020401069405517E-2</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>2.0942234854644214E-2</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>2.0864068639882907E-2</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>2.0785902425121603E-2</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>2.0707736210360303E-2</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>2.0629569995598999E-2</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>2.0551403780837692E-2</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>2.0473237566076389E-2</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>2.0395071351315082E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.7524738675958185E-2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2.2556969990226838E-2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3.1754821549842736E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.10958510374377319</v>
-      </c>
-      <c r="I22" s="1">
-        <v>7.2658491665106781E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>6.4501477723212033E-2</v>
-      </c>
-      <c r="K22" s="1">
-        <v>6.0073624291528939E-2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>5.6136906748470543E-2</v>
-      </c>
-      <c r="M22" s="1">
-        <v>5.1717656628571564E-2</v>
-      </c>
-      <c r="N22" s="1">
-        <v>4.6367091247547822E-2</v>
-      </c>
-      <c r="O22" s="1">
-        <v>4.0848079140500038E-2</v>
-      </c>
-      <c r="P22" s="1">
-        <v>3.5190601172069187E-2</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>3.5438278161137753E-2</v>
-      </c>
-      <c r="R22" s="1">
-        <v>3.5837228383439251E-2</v>
-      </c>
-      <c r="S22" s="1">
-        <v>3.6179765454107608E-2</v>
-      </c>
-      <c r="T22" s="1">
-        <v>3.6693132734865901E-2</v>
-      </c>
-      <c r="U22" s="1">
-        <v>3.7162557637233112E-2</v>
-      </c>
-      <c r="V22" s="1">
-        <v>3.7273421564079735E-2</v>
-      </c>
-      <c r="W22" s="1">
-        <v>3.7295868844609774E-2</v>
-      </c>
-      <c r="X22" s="1">
-        <v>3.7432453541312E-2</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>3.7480314960956801E-2</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>3.76264025404459E-2</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>3.7001807421689667E-2</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>3.6396439214074351E-2</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>3.5910855944227181E-2</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>3.5339752285810287E-2</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>3.4868474205940726E-2</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>3.4349980576485084E-2</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>3.3927505295104E-2</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>3.3418274176172831E-2</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>3.3018851102917787E-2</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>3.2532636521895537E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.104</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.106</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.107</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.108</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.109</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.111</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.113</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0.121</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.122</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0.123</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0.124</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0.129</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>7.4162839057389032E-2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5.9270793267966984E-2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>8.6844213682472068E-2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>9.987405364380024E-2</v>
-      </c>
-      <c r="I25" s="1">
-        <v>8.9848186169571506E-2</v>
-      </c>
-      <c r="J25" s="1">
-        <v>8.0709805803888562E-2</v>
-      </c>
-      <c r="K25" s="1">
-        <v>7.4545217103161129E-2</v>
-      </c>
-      <c r="L25" s="1">
-        <v>6.968777153502935E-2</v>
-      </c>
-      <c r="M25" s="1">
-        <v>6.5984808790841606E-2</v>
-      </c>
-      <c r="N25" s="1">
-        <v>6.4308412595709019E-2</v>
-      </c>
-      <c r="O25" s="1">
-        <v>6.32016756145867E-2</v>
-      </c>
-      <c r="P25" s="1">
-        <v>6.2094938633464367E-2</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>6.1968961426494336E-2</v>
-      </c>
-      <c r="R25" s="1">
-        <v>6.1842984219524298E-2</v>
-      </c>
-      <c r="S25" s="1">
-        <v>6.1717007012554274E-2</v>
-      </c>
-      <c r="T25" s="1">
-        <v>6.1591029805584237E-2</v>
-      </c>
-      <c r="U25" s="1">
-        <v>6.1465052598614199E-2</v>
-      </c>
-      <c r="V25" s="1">
-        <v>6.1339075391644175E-2</v>
-      </c>
-      <c r="W25" s="1">
-        <v>6.1213098184674145E-2</v>
-      </c>
-      <c r="X25" s="1">
-        <v>6.1087120977704121E-2</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>6.0961143770734083E-2</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>6.0835166563764059E-2</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>6.0709189356794022E-2</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>6.0583212149823984E-2</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>6.045723494285396E-2</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>6.0331257735883922E-2</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>6.0205280528913899E-2</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>6.0079303321943882E-2</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>5.9953326114973844E-2</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>5.9827348908003807E-2</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>5.9701371701033769E-2</v>
-      </c>
-      <c r="AJ25" s="1">
+      <c r="AK17" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
@@ -3389,54 +2551,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DEE8DD-05DD-9141-9E27-AF98B2E53894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68987F8-C064-4A4A-9D04-2FA93EACB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8380" yWindow="1260" windowWidth="17800" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>euro/kWh</t>
   </si>
@@ -301,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AK17" totalsRowShown="0">
-  <autoFilter ref="A1:AK17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AK25" totalsRowShown="0">
+  <autoFilter ref="A1:AK25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -974,106 +974,106 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>4.9794752608679535E-2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>5.1039503251346256E-2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>9.5513027767655176E-2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.14900315456786425</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0.11232937738230503</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>8.943430122584814E-2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>7.5667559065261236E-2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>7.122030604096162E-2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>6.6773053016662018E-2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>6.2325799992362409E-2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.78785469680628E-2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>5.7608665017664769E-2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>5.7338783067266745E-2</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>5.7068901116868728E-2</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>5.6799019166470698E-2</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>5.6529137216072674E-2</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>5.625925526567465E-2</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>5.5989373315276633E-2</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>5.5719491364878602E-2</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>5.5449609414480572E-2</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.5179727464082555E-2</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>5.4909845513684538E-2</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>5.4639963563286501E-2</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>5.4370081612888477E-2</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>5.410019966249046E-2</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.3830317712092429E-2</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <v>5.3560435761694405E-2</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>5.3290553811296382E-2</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>5.3020671860898365E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>5.2750789910500334E-2</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.2480907960102297E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
@@ -1087,106 +1087,106 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.8598360515137926E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.9794752608679535E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>5.1039503251346256E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>9.5513027767655176E-2</v>
       </c>
       <c r="J5" s="1">
-        <v>3.9178703664221291E-2</v>
+        <v>0.14900315456786425</v>
       </c>
       <c r="K5" s="1">
-        <v>3.3508530309731971E-2</v>
+        <v>0.11232937738230503</v>
       </c>
       <c r="L5" s="1">
-        <v>2.9683532312984855E-2</v>
+        <v>8.943430122584814E-2</v>
       </c>
       <c r="M5" s="1">
-        <v>2.6669589214847626E-2</v>
+        <v>7.5667559065261236E-2</v>
       </c>
       <c r="N5" s="1">
-        <v>2.4371978495599467E-2</v>
+        <v>7.122030604096162E-2</v>
       </c>
       <c r="O5" s="1">
-        <v>2.3331809816157813E-2</v>
+        <v>6.6773053016662018E-2</v>
       </c>
       <c r="P5" s="1">
-        <v>2.2645102731349488E-2</v>
+        <v>6.2325799992362409E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.1958395646541159E-2</v>
+        <v>5.78785469680628E-2</v>
       </c>
       <c r="R5" s="1">
-        <v>2.1880229431779856E-2</v>
+        <v>5.7608665017664769E-2</v>
       </c>
       <c r="S5" s="1">
-        <v>2.1802063217018549E-2</v>
+        <v>5.7338783067266745E-2</v>
       </c>
       <c r="T5" s="1">
-        <v>2.1723897002257249E-2</v>
+        <v>5.7068901116868728E-2</v>
       </c>
       <c r="U5" s="1">
-        <v>2.1645730787495942E-2</v>
+        <v>5.6799019166470698E-2</v>
       </c>
       <c r="V5" s="1">
-        <v>2.1567564572734638E-2</v>
+        <v>5.6529137216072674E-2</v>
       </c>
       <c r="W5" s="1">
-        <v>2.1489398357973338E-2</v>
+        <v>5.625925526567465E-2</v>
       </c>
       <c r="X5" s="1">
-        <v>2.1411232143212035E-2</v>
+        <v>5.5989373315276633E-2</v>
       </c>
       <c r="Y5" s="1">
-        <v>2.1333065928450728E-2</v>
+        <v>5.5719491364878602E-2</v>
       </c>
       <c r="Z5" s="1">
-        <v>2.1254899713689424E-2</v>
+        <v>5.5449609414480572E-2</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.1176733498928124E-2</v>
+        <v>5.5179727464082555E-2</v>
       </c>
       <c r="AB5" s="1">
-        <v>2.1098567284166821E-2</v>
+        <v>5.4909845513684538E-2</v>
       </c>
       <c r="AC5" s="1">
-        <v>2.1020401069405517E-2</v>
+        <v>5.4639963563286501E-2</v>
       </c>
       <c r="AD5" s="1">
-        <v>2.0942234854644214E-2</v>
+        <v>5.4370081612888477E-2</v>
       </c>
       <c r="AE5" s="1">
-        <v>2.0864068639882907E-2</v>
+        <v>5.410019966249046E-2</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.0785902425121603E-2</v>
+        <v>5.3830317712092429E-2</v>
       </c>
       <c r="AG5" s="1">
-        <v>2.0707736210360303E-2</v>
+        <v>5.3560435761694405E-2</v>
       </c>
       <c r="AH5" s="1">
-        <v>2.0629569995598999E-2</v>
+        <v>5.3290553811296382E-2</v>
       </c>
       <c r="AI5" s="1">
-        <v>2.0551403780837692E-2</v>
+        <v>5.3020671860898365E-2</v>
       </c>
       <c r="AJ5" s="1">
-        <v>2.0473237566076389E-2</v>
+        <v>5.2750789910500334E-2</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.0395071351315082E-2</v>
+        <v>5.2480907960102297E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
@@ -1200,106 +1200,106 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>4.5399544155988694E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>2.2556969990226838E-2</v>
+        <v>4.5399544155988694E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>3.1754821549842736E-2</v>
+        <v>4.5399544155988694E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>0.10958510374377319</v>
+        <v>4.5399544155988694E-2</v>
       </c>
       <c r="J6" s="1">
-        <v>7.2658491665106781E-2</v>
+        <v>3.9178703664221291E-2</v>
       </c>
       <c r="K6" s="1">
-        <v>6.4501477723212033E-2</v>
+        <v>3.3508530309731971E-2</v>
       </c>
       <c r="L6" s="1">
-        <v>6.0073624291528939E-2</v>
+        <v>2.9683532312984855E-2</v>
       </c>
       <c r="M6" s="1">
-        <v>5.6136906748470543E-2</v>
+        <v>2.6669589214847626E-2</v>
       </c>
       <c r="N6" s="1">
-        <v>5.1717656628571564E-2</v>
+        <v>2.4371978495599467E-2</v>
       </c>
       <c r="O6" s="1">
-        <v>4.6367091247547822E-2</v>
+        <v>2.3331809816157813E-2</v>
       </c>
       <c r="P6" s="1">
-        <v>4.0848079140500038E-2</v>
+        <v>2.2645102731349488E-2</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.5190601172069187E-2</v>
+        <v>2.1958395646541159E-2</v>
       </c>
       <c r="R6" s="1">
-        <v>3.5438278161137753E-2</v>
+        <v>2.1880229431779856E-2</v>
       </c>
       <c r="S6" s="1">
-        <v>3.5837228383439251E-2</v>
+        <v>2.1802063217018549E-2</v>
       </c>
       <c r="T6" s="1">
-        <v>3.6179765454107608E-2</v>
+        <v>2.1723897002257249E-2</v>
       </c>
       <c r="U6" s="1">
-        <v>3.6693132734865901E-2</v>
+        <v>2.1645730787495942E-2</v>
       </c>
       <c r="V6" s="1">
-        <v>3.7162557637233112E-2</v>
+        <v>2.1567564572734638E-2</v>
       </c>
       <c r="W6" s="1">
-        <v>3.7273421564079735E-2</v>
+        <v>2.1489398357973338E-2</v>
       </c>
       <c r="X6" s="1">
-        <v>3.7295868844609774E-2</v>
+        <v>2.1411232143212035E-2</v>
       </c>
       <c r="Y6" s="1">
-        <v>3.7432453541312E-2</v>
+        <v>2.1333065928450728E-2</v>
       </c>
       <c r="Z6" s="1">
-        <v>3.7480314960956801E-2</v>
+        <v>2.1254899713689424E-2</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.76264025404459E-2</v>
+        <v>2.1176733498928124E-2</v>
       </c>
       <c r="AB6" s="1">
-        <v>3.7001807421689667E-2</v>
+        <v>2.1098567284166821E-2</v>
       </c>
       <c r="AC6" s="1">
-        <v>3.6396439214074351E-2</v>
+        <v>2.1020401069405517E-2</v>
       </c>
       <c r="AD6" s="1">
-        <v>3.5910855944227181E-2</v>
+        <v>2.0942234854644214E-2</v>
       </c>
       <c r="AE6" s="1">
-        <v>3.5339752285810287E-2</v>
+        <v>2.0864068639882907E-2</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.4868474205940726E-2</v>
+        <v>2.0785902425121603E-2</v>
       </c>
       <c r="AG6" s="1">
-        <v>3.4349980576485084E-2</v>
+        <v>2.0707736210360303E-2</v>
       </c>
       <c r="AH6" s="1">
-        <v>3.3927505295104E-2</v>
+        <v>2.0629569995598999E-2</v>
       </c>
       <c r="AI6" s="1">
-        <v>3.3418274176172831E-2</v>
+        <v>2.0551403780837692E-2</v>
       </c>
       <c r="AJ6" s="1">
-        <v>3.3018851102917787E-2</v>
+        <v>2.0473237566076389E-2</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.2532636521895537E-2</v>
+        <v>2.0395071351315082E-2</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -1313,106 +1313,106 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>9.4E-2</v>
+        <v>2.7524738675958185E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>2.2556969990226838E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>3.1754821549842736E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>0.104</v>
+        <v>0.10958510374377319</v>
       </c>
       <c r="J7" s="1">
-        <v>0.106</v>
+        <v>7.2658491665106781E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>0.107</v>
+        <v>6.4501477723212033E-2</v>
       </c>
       <c r="L7" s="1">
-        <v>0.108</v>
+        <v>6.0073624291528939E-2</v>
       </c>
       <c r="M7" s="1">
-        <v>0.109</v>
+        <v>5.6136906748470543E-2</v>
       </c>
       <c r="N7" s="1">
-        <v>0.111</v>
+        <v>5.1717656628571564E-2</v>
       </c>
       <c r="O7" s="1">
-        <v>0.113</v>
+        <v>4.6367091247547822E-2</v>
       </c>
       <c r="P7" s="1">
-        <v>0.11700000000000001</v>
+        <v>4.0848079140500038E-2</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.11899999999999999</v>
+        <v>3.5190601172069187E-2</v>
       </c>
       <c r="R7" s="1">
-        <v>0.12</v>
+        <v>3.5438278161137753E-2</v>
       </c>
       <c r="S7" s="1">
-        <v>0.121</v>
+        <v>3.5837228383439251E-2</v>
       </c>
       <c r="T7" s="1">
-        <v>0.122</v>
+        <v>3.6179765454107608E-2</v>
       </c>
       <c r="U7" s="1">
-        <v>0.123</v>
+        <v>3.6693132734865901E-2</v>
       </c>
       <c r="V7" s="1">
-        <v>0.124</v>
+        <v>3.7162557637233112E-2</v>
       </c>
       <c r="W7" s="1">
-        <v>0.127</v>
+        <v>3.7273421564079735E-2</v>
       </c>
       <c r="X7" s="1">
-        <v>0.129</v>
+        <v>3.7295868844609774E-2</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.13</v>
+        <v>3.7432453541312E-2</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.13200000000000001</v>
+        <v>3.7480314960956801E-2</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.13400000000000001</v>
+        <v>3.76264025404459E-2</v>
       </c>
       <c r="AB7" s="1">
-        <v>0.13500000000000001</v>
+        <v>3.7001807421689667E-2</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.13700000000000001</v>
+        <v>3.6396439214074351E-2</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.13900000000000001</v>
+        <v>3.5910855944227181E-2</v>
       </c>
       <c r="AE7" s="1">
-        <v>0.14000000000000001</v>
+        <v>3.5339752285810287E-2</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.14199999999999999</v>
+        <v>3.4868474205940726E-2</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.14399999999999999</v>
+        <v>3.4349980576485084E-2</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.14499999999999999</v>
+        <v>3.3927505295104E-2</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.14699999999999999</v>
+        <v>3.3418274176172831E-2</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0.14899999999999999</v>
+        <v>3.3018851102917787E-2</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.15</v>
+        <v>3.2532636521895537E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
@@ -1426,106 +1426,106 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>9.4E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>0.127</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>0.129</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>0</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -1539,106 +1539,106 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>5.9270793267966984E-2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>8.6844213682472068E-2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>9.987405364380024E-2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>8.9848186169571506E-2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>8.0709805803888562E-2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>7.4545217103161129E-2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>6.968777153502935E-2</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>6.5984808790841606E-2</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>6.4308412595709019E-2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>6.32016756145867E-2</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.2094938633464367E-2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>6.1968961426494336E-2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>6.1842984219524298E-2</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>6.1717007012554274E-2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>6.1591029805584237E-2</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>6.1465052598614199E-2</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>6.1339075391644175E-2</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>6.1213098184674145E-2</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>6.1087120977704121E-2</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>6.0961143770734083E-2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.0835166563764059E-2</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>6.0709189356794022E-2</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>6.0583212149823984E-2</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <v>6.045723494285396E-2</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>6.0331257735883922E-2</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.0205280528913899E-2</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
-        <v>6.0079303321943882E-2</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>5.9953326114973844E-2</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>5.9827348908003807E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>5.9701371701033769E-2</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.9575394494063731E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -1649,109 +1649,109 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0.27239999999999998</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.2893102287382881</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0.28620579422845271</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0.36583232656913367</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0.44377798262936158</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0.3408795727764326</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0.29844643389338155</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0.27870424408711525</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>0.26406947068297998</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0.25961997527047004</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0.25466789163258652</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.25162191511634963</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>0.24436682147144859</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>0.23712769751876733</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>0.22990422386446158</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0.22269608750256381</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.21550298168722576</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0.21268957803546309</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>0.20989060972061643</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.20710578803594751</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.20433483004885264</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.20157745848538053</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.20382001183120677</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.20607561357828016</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.20834400275857581</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>0.2106249236234293</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.21291812553914952</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.21506074795712402</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.21721516509635094</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.21938114106240519</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.22155844467875013</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.22374684939238004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -1762,109 +1762,109 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>5.9270793267966984E-2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>8.6844213682472068E-2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>9.987405364380024E-2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>8.9848186169571506E-2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>8.0709805803888562E-2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>7.4545217103161129E-2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>6.968777153502935E-2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>6.5984808790841606E-2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>6.4308412595709019E-2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>6.32016756145867E-2</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.2094938633464367E-2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>6.1968961426494336E-2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>6.1842984219524298E-2</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>6.1717007012554274E-2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>6.1591029805584237E-2</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>6.1465052598614199E-2</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>6.1339075391644175E-2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>6.1213098184674145E-2</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>6.1087120977704121E-2</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>6.0961143770734083E-2</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.0835166563764059E-2</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>6.0709189356794022E-2</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>6.0583212149823984E-2</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>6.045723494285396E-2</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>6.0331257735883922E-2</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.0205280528913899E-2</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="1">
-        <v>6.0079303321943882E-2</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <v>5.9953326114973844E-2</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>5.9827348908003807E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>5.9701371701033769E-2</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.9575394494063731E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
@@ -1875,109 +1875,109 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>4.9794752608679535E-2</v>
+        <v>5.9270793267966984E-2</v>
       </c>
       <c r="H12" s="1">
-        <v>5.1039503251346256E-2</v>
+        <v>8.6844213682472068E-2</v>
       </c>
       <c r="I12" s="1">
-        <v>9.5513027767655176E-2</v>
+        <v>9.987405364380024E-2</v>
       </c>
       <c r="J12" s="1">
-        <v>0.14900315456786425</v>
+        <v>8.9848186169571506E-2</v>
       </c>
       <c r="K12" s="1">
-        <v>0.11232937738230503</v>
+        <v>8.0709805803888562E-2</v>
       </c>
       <c r="L12" s="1">
-        <v>8.943430122584814E-2</v>
+        <v>7.4545217103161129E-2</v>
       </c>
       <c r="M12" s="1">
-        <v>7.5667559065261236E-2</v>
+        <v>6.968777153502935E-2</v>
       </c>
       <c r="N12" s="1">
-        <v>7.122030604096162E-2</v>
+        <v>6.5984808790841606E-2</v>
       </c>
       <c r="O12" s="1">
-        <v>6.6773053016662018E-2</v>
+        <v>6.4308412595709019E-2</v>
       </c>
       <c r="P12" s="1">
-        <v>6.2325799992362409E-2</v>
+        <v>6.32016756145867E-2</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.78785469680628E-2</v>
+        <v>6.2094938633464367E-2</v>
       </c>
       <c r="R12" s="1">
-        <v>5.7608665017664769E-2</v>
+        <v>6.1968961426494336E-2</v>
       </c>
       <c r="S12" s="1">
-        <v>5.7338783067266745E-2</v>
+        <v>6.1842984219524298E-2</v>
       </c>
       <c r="T12" s="1">
-        <v>5.7068901116868728E-2</v>
+        <v>6.1717007012554274E-2</v>
       </c>
       <c r="U12" s="1">
-        <v>5.6799019166470698E-2</v>
+        <v>6.1591029805584237E-2</v>
       </c>
       <c r="V12" s="1">
-        <v>5.6529137216072674E-2</v>
+        <v>6.1465052598614199E-2</v>
       </c>
       <c r="W12" s="1">
-        <v>5.625925526567465E-2</v>
+        <v>6.1339075391644175E-2</v>
       </c>
       <c r="X12" s="1">
-        <v>5.5989373315276633E-2</v>
+        <v>6.1213098184674145E-2</v>
       </c>
       <c r="Y12" s="1">
-        <v>5.5719491364878602E-2</v>
+        <v>6.1087120977704121E-2</v>
       </c>
       <c r="Z12" s="1">
-        <v>5.5449609414480572E-2</v>
+        <v>6.0961143770734083E-2</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.5179727464082555E-2</v>
+        <v>6.0835166563764059E-2</v>
       </c>
       <c r="AB12" s="1">
-        <v>5.4909845513684538E-2</v>
+        <v>6.0709189356794022E-2</v>
       </c>
       <c r="AC12" s="1">
-        <v>5.4639963563286501E-2</v>
+        <v>6.0583212149823984E-2</v>
       </c>
       <c r="AD12" s="1">
-        <v>5.4370081612888477E-2</v>
+        <v>6.045723494285396E-2</v>
       </c>
       <c r="AE12" s="1">
-        <v>5.410019966249046E-2</v>
+        <v>6.0331257735883922E-2</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.3830317712092429E-2</v>
+        <v>6.0205280528913899E-2</v>
       </c>
       <c r="AG12" s="1">
-        <v>5.3560435761694405E-2</v>
+        <v>6.0079303321943882E-2</v>
       </c>
       <c r="AH12" s="1">
-        <v>5.3290553811296382E-2</v>
+        <v>5.9953326114973844E-2</v>
       </c>
       <c r="AI12" s="1">
-        <v>5.3020671860898365E-2</v>
+        <v>5.9827348908003807E-2</v>
       </c>
       <c r="AJ12" s="1">
-        <v>5.2750789910500334E-2</v>
+        <v>5.9701371701033769E-2</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.2480907960102297E-2</v>
+        <v>5.9575394494063731E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
@@ -1988,109 +1988,109 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>3.9178703664221291E-2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>3.3508530309731971E-2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>2.9683532312984855E-2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>2.6669589214847626E-2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>2.4371978495599467E-2</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>2.3331809816157813E-2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>2.2645102731349488E-2</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.1958395646541159E-2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>2.1880229431779856E-2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>2.1802063217018549E-2</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>2.1723897002257249E-2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>2.1645730787495942E-2</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>2.1567564572734638E-2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>2.1489398357973338E-2</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>2.1411232143212035E-2</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>2.1333065928450728E-2</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>2.1254899713689424E-2</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.1176733498928124E-2</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>2.1098567284166821E-2</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>2.1020401069405517E-2</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>2.0942234854644214E-2</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>2.0864068639882907E-2</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.0785902425121603E-2</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="1">
-        <v>2.0707736210360303E-2</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>2.0629569995598999E-2</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>2.0551403780837692E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>2.0473237566076389E-2</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.0395071351315082E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
@@ -2104,106 +2104,106 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>0.27239999999999998</v>
       </c>
       <c r="G14" s="1">
-        <v>2.2556969990226838E-2</v>
+        <v>0.2893102287382881</v>
       </c>
       <c r="H14" s="1">
-        <v>3.1754821549842736E-2</v>
+        <v>0.28620579422845271</v>
       </c>
       <c r="I14" s="1">
-        <v>0.10958510374377319</v>
+        <v>0.36583232656913367</v>
       </c>
       <c r="J14" s="1">
-        <v>7.2658491665106781E-2</v>
+        <v>0.44377798262936158</v>
       </c>
       <c r="K14" s="1">
-        <v>6.4501477723212033E-2</v>
+        <v>0.3408795727764326</v>
       </c>
       <c r="L14" s="1">
-        <v>6.0073624291528939E-2</v>
+        <v>0.29844643389338155</v>
       </c>
       <c r="M14" s="1">
-        <v>5.6136906748470543E-2</v>
+        <v>0.27870424408711525</v>
       </c>
       <c r="N14" s="1">
-        <v>5.1717656628571564E-2</v>
+        <v>0.26406947068297998</v>
       </c>
       <c r="O14" s="1">
-        <v>4.6367091247547822E-2</v>
+        <v>0.25961997527047004</v>
       </c>
       <c r="P14" s="1">
-        <v>4.0848079140500038E-2</v>
+        <v>0.25466789163258652</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.5190601172069187E-2</v>
+        <v>0.25162191511634963</v>
       </c>
       <c r="R14" s="1">
-        <v>3.5438278161137753E-2</v>
+        <v>0.24436682147144859</v>
       </c>
       <c r="S14" s="1">
-        <v>3.5837228383439251E-2</v>
+        <v>0.23712769751876733</v>
       </c>
       <c r="T14" s="1">
-        <v>3.6179765454107608E-2</v>
+        <v>0.22990422386446158</v>
       </c>
       <c r="U14" s="1">
-        <v>3.6693132734865901E-2</v>
+        <v>0.22269608750256381</v>
       </c>
       <c r="V14" s="1">
-        <v>3.7162557637233112E-2</v>
+        <v>0.21550298168722576</v>
       </c>
       <c r="W14" s="1">
-        <v>3.7273421564079735E-2</v>
+        <v>0.21268957803546309</v>
       </c>
       <c r="X14" s="1">
-        <v>3.7295868844609774E-2</v>
+        <v>0.20989060972061643</v>
       </c>
       <c r="Y14" s="1">
-        <v>3.7432453541312E-2</v>
+        <v>0.20710578803594751</v>
       </c>
       <c r="Z14" s="1">
-        <v>3.7480314960956801E-2</v>
+        <v>0.20433483004885264</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.76264025404459E-2</v>
+        <v>0.20157745848538053</v>
       </c>
       <c r="AB14" s="1">
-        <v>3.7001807421689667E-2</v>
+        <v>0.20382001183120677</v>
       </c>
       <c r="AC14" s="1">
-        <v>3.6396439214074351E-2</v>
+        <v>0.20607561357828016</v>
       </c>
       <c r="AD14" s="1">
-        <v>3.5910855944227181E-2</v>
+        <v>0.20834400275857581</v>
       </c>
       <c r="AE14" s="1">
-        <v>3.5339752285810287E-2</v>
+        <v>0.2106249236234293</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.4868474205940726E-2</v>
+        <v>0.21291812553914952</v>
       </c>
       <c r="AG14" s="1">
-        <v>3.4349980576485084E-2</v>
+        <v>0.21506074795712402</v>
       </c>
       <c r="AH14" s="1">
-        <v>3.3927505295104E-2</v>
+        <v>0.21721516509635094</v>
       </c>
       <c r="AI14" s="1">
-        <v>3.3418274176172831E-2</v>
+        <v>0.21938114106240519</v>
       </c>
       <c r="AJ14" s="1">
-        <v>3.3018851102917787E-2</v>
+        <v>0.22155844467875013</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.2532636521895537E-2</v>
+        <v>0.22374684939238004</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
@@ -2217,106 +2217,106 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>9.4E-2</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="G15" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>5.9270793267966984E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>8.6844213682472068E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>0.104</v>
+        <v>9.987405364380024E-2</v>
       </c>
       <c r="J15" s="1">
-        <v>0.106</v>
+        <v>8.9848186169571506E-2</v>
       </c>
       <c r="K15" s="1">
-        <v>0.107</v>
+        <v>8.0709805803888562E-2</v>
       </c>
       <c r="L15" s="1">
-        <v>0.108</v>
+        <v>7.4545217103161129E-2</v>
       </c>
       <c r="M15" s="1">
-        <v>0.109</v>
+        <v>6.968777153502935E-2</v>
       </c>
       <c r="N15" s="1">
-        <v>0.111</v>
+        <v>6.5984808790841606E-2</v>
       </c>
       <c r="O15" s="1">
-        <v>0.113</v>
+        <v>6.4308412595709019E-2</v>
       </c>
       <c r="P15" s="1">
-        <v>0.11700000000000001</v>
+        <v>6.32016756145867E-2</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.11899999999999999</v>
+        <v>6.2094938633464367E-2</v>
       </c>
       <c r="R15" s="1">
-        <v>0.12</v>
+        <v>6.1968961426494336E-2</v>
       </c>
       <c r="S15" s="1">
-        <v>0.121</v>
+        <v>6.1842984219524298E-2</v>
       </c>
       <c r="T15" s="1">
-        <v>0.122</v>
+        <v>6.1717007012554274E-2</v>
       </c>
       <c r="U15" s="1">
-        <v>0.123</v>
+        <v>6.1591029805584237E-2</v>
       </c>
       <c r="V15" s="1">
-        <v>0.124</v>
+        <v>6.1465052598614199E-2</v>
       </c>
       <c r="W15" s="1">
-        <v>0.127</v>
+        <v>6.1339075391644175E-2</v>
       </c>
       <c r="X15" s="1">
-        <v>0.129</v>
+        <v>6.1213098184674145E-2</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.13</v>
+        <v>6.1087120977704121E-2</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.13200000000000001</v>
+        <v>6.0961143770734083E-2</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.13400000000000001</v>
+        <v>6.0835166563764059E-2</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.13500000000000001</v>
+        <v>6.0709189356794022E-2</v>
       </c>
       <c r="AC15" s="1">
-        <v>0.13700000000000001</v>
+        <v>6.0583212149823984E-2</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.13900000000000001</v>
+        <v>6.045723494285396E-2</v>
       </c>
       <c r="AE15" s="1">
-        <v>0.14000000000000001</v>
+        <v>6.0331257735883922E-2</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.14199999999999999</v>
+        <v>6.0205280528913899E-2</v>
       </c>
       <c r="AG15" s="1">
-        <v>0.14399999999999999</v>
+        <v>6.0079303321943882E-2</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.14499999999999999</v>
+        <v>5.9953326114973844E-2</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.14699999999999999</v>
+        <v>5.9827348908003807E-2</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0.14899999999999999</v>
+        <v>5.9701371701033769E-2</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.15</v>
+        <v>5.9575394494063731E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
@@ -2330,106 +2330,106 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>4.8598360515137926E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>4.9794752608679535E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>5.1039503251346256E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>9.5513027767655176E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>0.14900315456786425</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>0.11232937738230503</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>8.943430122584814E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>7.5667559065261236E-2</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>7.122030604096162E-2</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>6.6773053016662018E-2</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>6.2325799992362409E-2</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>5.78785469680628E-2</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>5.7608665017664769E-2</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>5.7338783067266745E-2</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>5.7068901116868728E-2</v>
       </c>
       <c r="U16" s="1">
-        <v>0</v>
+        <v>5.6799019166470698E-2</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
+        <v>5.6529137216072674E-2</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>5.625925526567465E-2</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>5.5989373315276633E-2</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>5.5719491364878602E-2</v>
       </c>
       <c r="Z16" s="1">
-        <v>0</v>
+        <v>5.5449609414480572E-2</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>5.5179727464082555E-2</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>5.4909845513684538E-2</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>5.4639963563286501E-2</v>
       </c>
       <c r="AD16" s="1">
-        <v>0</v>
+        <v>5.4370081612888477E-2</v>
       </c>
       <c r="AE16" s="1">
-        <v>0</v>
+        <v>5.410019966249046E-2</v>
       </c>
       <c r="AF16" s="1">
-        <v>0</v>
+        <v>5.3830317712092429E-2</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>5.3560435761694405E-2</v>
       </c>
       <c r="AH16" s="1">
-        <v>0</v>
+        <v>5.3290553811296382E-2</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>5.3020671860898365E-2</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0</v>
+        <v>5.2750789910500334E-2</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>5.2480907960102297E-2</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -2443,106 +2443,1010 @@
         <v>6</v>
       </c>
       <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3.9178703664221291E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3.3508530309731971E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.9683532312984855E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2.6669589214847626E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.4371978495599467E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.3331809816157813E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2.2645102731349488E-2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2.1958395646541159E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2.1880229431779856E-2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>2.1802063217018549E-2</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2.1723897002257249E-2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2.1645730787495942E-2</v>
+      </c>
+      <c r="V17" s="1">
+        <v>2.1567564572734638E-2</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2.1489398357973338E-2</v>
+      </c>
+      <c r="X17" s="1">
+        <v>2.1411232143212035E-2</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>2.1333065928450728E-2</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>2.1254899713689424E-2</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>2.1176733498928124E-2</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>2.1098567284166821E-2</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>2.1020401069405517E-2</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>2.0942234854644214E-2</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>2.0864068639882907E-2</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>2.0785902425121603E-2</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>2.0707736210360303E-2</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>2.0629569995598999E-2</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>2.0551403780837692E-2</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>2.0473237566076389E-2</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>2.0395071351315082E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.2556969990226838E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.1754821549842736E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.10958510374377319</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7.2658491665106781E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6.4501477723212033E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6.0073624291528939E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5.6136906748470543E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5.1717656628571564E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4.6367091247547822E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4.0848079140500038E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3.5190601172069187E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3.5438278161137753E-2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3.5837228383439251E-2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>3.6179765454107608E-2</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3.6693132734865901E-2</v>
+      </c>
+      <c r="V18" s="1">
+        <v>3.7162557637233112E-2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>3.7273421564079735E-2</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3.7295868844609774E-2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>3.7432453541312E-2</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>3.7480314960956801E-2</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>3.76264025404459E-2</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>3.7001807421689667E-2</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>3.6396439214074351E-2</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>3.5910855944227181E-2</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>3.5339752285810287E-2</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>3.4868474205940726E-2</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>3.4349980576485084E-2</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>3.3927505295104E-2</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>3.3418274176172831E-2</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>3.3018851102917787E-2</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>3.2532636521895537E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5.9270793267966984E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>8.6844213682472068E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>9.987405364380024E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>8.9848186169571506E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>8.0709805803888562E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>7.4545217103161129E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6.968777153502935E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>6.5984808790841606E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>6.4308412595709019E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>6.32016756145867E-2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>6.2094938633464367E-2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>6.1968961426494336E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>6.1842984219524298E-2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>6.1717007012554274E-2</v>
+      </c>
+      <c r="U21" s="1">
+        <v>6.1591029805584237E-2</v>
+      </c>
+      <c r="V21" s="1">
+        <v>6.1465052598614199E-2</v>
+      </c>
+      <c r="W21" s="1">
+        <v>6.1339075391644175E-2</v>
+      </c>
+      <c r="X21" s="1">
+        <v>6.1213098184674145E-2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>6.1087120977704121E-2</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>6.0961143770734083E-2</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>6.0835166563764059E-2</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>6.0709189356794022E-2</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>6.0583212149823984E-2</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>6.045723494285396E-2</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>6.0331257735883922E-2</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>6.0205280528913899E-2</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>6.0079303321943882E-2</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>5.9953326114973844E-2</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>5.9827348908003807E-2</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>5.9701371701033769E-2</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>5.9575394494063731E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>7.4162839057389032E-2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5.9270793267966984E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>8.6844213682472068E-2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>9.987405364380024E-2</v>
-      </c>
-      <c r="J17" s="1">
-        <v>8.9848186169571506E-2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>8.0709805803888562E-2</v>
-      </c>
-      <c r="L17" s="1">
-        <v>7.4545217103161129E-2</v>
-      </c>
-      <c r="M17" s="1">
-        <v>6.968777153502935E-2</v>
-      </c>
-      <c r="N17" s="1">
-        <v>6.5984808790841606E-2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>6.4308412595709019E-2</v>
-      </c>
-      <c r="P17" s="1">
-        <v>6.32016756145867E-2</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>6.2094938633464367E-2</v>
-      </c>
-      <c r="R17" s="1">
-        <v>6.1968961426494336E-2</v>
-      </c>
-      <c r="S17" s="1">
-        <v>6.1842984219524298E-2</v>
-      </c>
-      <c r="T17" s="1">
-        <v>6.1717007012554274E-2</v>
-      </c>
-      <c r="U17" s="1">
-        <v>6.1591029805584237E-2</v>
-      </c>
-      <c r="V17" s="1">
-        <v>6.1465052598614199E-2</v>
-      </c>
-      <c r="W17" s="1">
-        <v>6.1339075391644175E-2</v>
-      </c>
-      <c r="X17" s="1">
-        <v>6.1213098184674145E-2</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>6.1087120977704121E-2</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>6.0961143770734083E-2</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>6.0835166563764059E-2</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>6.0709189356794022E-2</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>6.0583212149823984E-2</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>6.045723494285396E-2</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>6.0331257735883922E-2</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>6.0205280528913899E-2</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>6.0079303321943882E-2</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>5.9953326114973844E-2</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>5.9827348908003807E-2</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>5.9701371701033769E-2</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>5.9575394494063731E-2</v>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68987F8-C064-4A4A-9D04-2FA93EACB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE04FE-BDE2-5448-A068-3401EC7D15F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="1260" windowWidth="17800" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5060" yWindow="-16000" windowWidth="27080" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>euro/kWh</t>
   </si>
@@ -145,6 +146,36 @@
   </si>
   <si>
     <t>id_sector</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>note: the values from 2010 to 2018 are copied from 2019 to hold the place</t>
   </si>
 </sst>
 </file>
@@ -154,10 +185,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,14 +338,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AK25" totalsRowShown="0">
-  <autoFilter ref="A1:AK25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AT25" totalsRowShown="0">
+  <autoFilter ref="A1:AT25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="3" xr3:uid="{1420788D-CCBC-C54D-BB2E-6D34CC34C900}" name="id_sector"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_energy_carrier"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
+    <tableColumn id="40" xr3:uid="{E7703E58-A3F9-A34B-8EBB-3E2100507E4A}" name="2010"/>
+    <tableColumn id="41" xr3:uid="{7AE670AD-D006-4148-BECF-E9F6EDE431B4}" name="2011"/>
+    <tableColumn id="42" xr3:uid="{27D1FBE3-9885-3C43-8875-1B3386244975}" name="2012"/>
+    <tableColumn id="43" xr3:uid="{7E36532A-8A8F-B242-A666-E4A3AE780087}" name="2013"/>
+    <tableColumn id="44" xr3:uid="{34235EF3-9131-1441-8C2B-7A1D3EC65956}" name="2014"/>
+    <tableColumn id="45" xr3:uid="{573BAB0B-5AC8-504D-9AB1-FDBB64F8CEBC}" name="2015"/>
+    <tableColumn id="46" xr3:uid="{B0307B9C-E596-9C45-A884-6107206EF60B}" name="2016"/>
+    <tableColumn id="47" xr3:uid="{C67527FE-8FCC-884E-8ABE-9B13ADCB88DD}" name="2017"/>
+    <tableColumn id="48" xr3:uid="{C57703B5-57A6-5D46-8344-2E20CC964EC4}" name="2018"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="31"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="30"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="29"/>
@@ -609,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,10 +667,11 @@
     <col min="2" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -641,103 +688,130 @@
         <v>34</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AT1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -757,100 +831,127 @@
         <v>0.27239999999999998</v>
       </c>
       <c r="G2" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="P2" s="1">
         <v>0.2893102287382881</v>
       </c>
-      <c r="H2" s="1">
+      <c r="Q2" s="1">
         <v>0.28620579422845271</v>
       </c>
-      <c r="I2" s="1">
+      <c r="R2" s="1">
         <v>0.36583232656913367</v>
       </c>
-      <c r="J2" s="1">
+      <c r="S2" s="1">
         <v>0.44377798262936158</v>
       </c>
-      <c r="K2" s="1">
+      <c r="T2" s="1">
         <v>0.3408795727764326</v>
       </c>
-      <c r="L2" s="1">
+      <c r="U2" s="1">
         <v>0.29844643389338155</v>
       </c>
-      <c r="M2" s="1">
+      <c r="V2" s="1">
         <v>0.27870424408711525</v>
       </c>
-      <c r="N2" s="1">
+      <c r="W2" s="1">
         <v>0.26406947068297998</v>
       </c>
-      <c r="O2" s="1">
+      <c r="X2" s="1">
         <v>0.25961997527047004</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Y2" s="1">
         <v>0.25466789163258652</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Z2" s="1">
         <v>0.25162191511634963</v>
       </c>
-      <c r="R2" s="1">
+      <c r="AA2" s="1">
         <v>0.24436682147144859</v>
       </c>
-      <c r="S2" s="1">
+      <c r="AB2" s="1">
         <v>0.23712769751876733</v>
       </c>
-      <c r="T2" s="1">
+      <c r="AC2" s="1">
         <v>0.22990422386446158</v>
       </c>
-      <c r="U2" s="1">
+      <c r="AD2" s="1">
         <v>0.22269608750256381</v>
       </c>
-      <c r="V2" s="1">
+      <c r="AE2" s="1">
         <v>0.21550298168722576</v>
       </c>
-      <c r="W2" s="1">
+      <c r="AF2" s="1">
         <v>0.21268957803546309</v>
       </c>
-      <c r="X2" s="1">
+      <c r="AG2" s="1">
         <v>0.20989060972061643</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AH2" s="1">
         <v>0.20710578803594751</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AI2" s="1">
         <v>0.20433483004885264</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AJ2" s="1">
         <v>0.20157745848538053</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AK2" s="1">
         <v>0.20382001183120677</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AL2" s="1">
         <v>0.20607561357828016</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AM2" s="1">
         <v>0.20834400275857581</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AN2" s="1">
         <v>0.2106249236234293</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AO2" s="1">
         <v>0.21291812553914952</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AP2" s="1">
         <v>0.21506074795712402</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AQ2" s="1">
         <v>0.21721516509635094</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AR2" s="1">
         <v>0.21938114106240519</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AS2" s="1">
         <v>0.22155844467875013</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AT2" s="1">
         <v>0.22374684939238004</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -870,100 +971,127 @@
         <v>7.4162839057389032E-2</v>
       </c>
       <c r="G3" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="P3" s="1">
         <v>5.9270793267966984E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="Q3" s="1">
         <v>8.6844213682472068E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="R3" s="1">
         <v>9.987405364380024E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="S3" s="1">
         <v>8.9848186169571506E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="T3" s="1">
         <v>8.0709805803888562E-2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="U3" s="1">
         <v>7.4545217103161129E-2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="V3" s="1">
         <v>6.968777153502935E-2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="W3" s="1">
         <v>6.5984808790841606E-2</v>
       </c>
-      <c r="O3" s="1">
+      <c r="X3" s="1">
         <v>6.4308412595709019E-2</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Y3" s="1">
         <v>6.32016756145867E-2</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Z3" s="1">
         <v>6.2094938633464367E-2</v>
       </c>
-      <c r="R3" s="1">
+      <c r="AA3" s="1">
         <v>6.1968961426494336E-2</v>
       </c>
-      <c r="S3" s="1">
+      <c r="AB3" s="1">
         <v>6.1842984219524298E-2</v>
       </c>
-      <c r="T3" s="1">
+      <c r="AC3" s="1">
         <v>6.1717007012554274E-2</v>
       </c>
-      <c r="U3" s="1">
+      <c r="AD3" s="1">
         <v>6.1591029805584237E-2</v>
       </c>
-      <c r="V3" s="1">
+      <c r="AE3" s="1">
         <v>6.1465052598614199E-2</v>
       </c>
-      <c r="W3" s="1">
+      <c r="AF3" s="1">
         <v>6.1339075391644175E-2</v>
       </c>
-      <c r="X3" s="1">
+      <c r="AG3" s="1">
         <v>6.1213098184674145E-2</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AH3" s="1">
         <v>6.1087120977704121E-2</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AI3" s="1">
         <v>6.0961143770734083E-2</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AJ3" s="1">
         <v>6.0835166563764059E-2</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AK3" s="1">
         <v>6.0709189356794022E-2</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AL3" s="1">
         <v>6.0583212149823984E-2</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AM3" s="1">
         <v>6.045723494285396E-2</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AN3" s="1">
         <v>6.0331257735883922E-2</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AO3" s="1">
         <v>6.0205280528913899E-2</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AP3" s="1">
         <v>6.0079303321943882E-2</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AQ3" s="1">
         <v>5.9953326114973844E-2</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AR3" s="1">
         <v>5.9827348908003807E-2</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AS3" s="1">
         <v>5.9701371701033769E-2</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AT3" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1075,8 +1203,35 @@
       <c r="AK4" s="1">
         <v>0</v>
       </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1096,100 +1251,127 @@
         <v>4.8598360515137926E-2</v>
       </c>
       <c r="G5" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="P5" s="1">
         <v>4.9794752608679535E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="Q5" s="1">
         <v>5.1039503251346256E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="R5" s="1">
         <v>9.5513027767655176E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="S5" s="1">
         <v>0.14900315456786425</v>
       </c>
-      <c r="K5" s="1">
+      <c r="T5" s="1">
         <v>0.11232937738230503</v>
       </c>
-      <c r="L5" s="1">
+      <c r="U5" s="1">
         <v>8.943430122584814E-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="V5" s="1">
         <v>7.5667559065261236E-2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="W5" s="1">
         <v>7.122030604096162E-2</v>
       </c>
-      <c r="O5" s="1">
+      <c r="X5" s="1">
         <v>6.6773053016662018E-2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Y5" s="1">
         <v>6.2325799992362409E-2</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Z5" s="1">
         <v>5.78785469680628E-2</v>
       </c>
-      <c r="R5" s="1">
+      <c r="AA5" s="1">
         <v>5.7608665017664769E-2</v>
       </c>
-      <c r="S5" s="1">
+      <c r="AB5" s="1">
         <v>5.7338783067266745E-2</v>
       </c>
-      <c r="T5" s="1">
+      <c r="AC5" s="1">
         <v>5.7068901116868728E-2</v>
       </c>
-      <c r="U5" s="1">
+      <c r="AD5" s="1">
         <v>5.6799019166470698E-2</v>
       </c>
-      <c r="V5" s="1">
+      <c r="AE5" s="1">
         <v>5.6529137216072674E-2</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AF5" s="1">
         <v>5.625925526567465E-2</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AG5" s="1">
         <v>5.5989373315276633E-2</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AH5" s="1">
         <v>5.5719491364878602E-2</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AI5" s="1">
         <v>5.5449609414480572E-2</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AJ5" s="1">
         <v>5.5179727464082555E-2</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AK5" s="1">
         <v>5.4909845513684538E-2</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AL5" s="1">
         <v>5.4639963563286501E-2</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AM5" s="1">
         <v>5.4370081612888477E-2</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AN5" s="1">
         <v>5.410019966249046E-2</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AO5" s="1">
         <v>5.3830317712092429E-2</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AP5" s="1">
         <v>5.3560435761694405E-2</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AQ5" s="1">
         <v>5.3290553811296382E-2</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AR5" s="1">
         <v>5.3020671860898365E-2</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AS5" s="1">
         <v>5.2750789910500334E-2</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AT5" s="1">
         <v>5.2480907960102297E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1218,91 +1400,118 @@
         <v>4.5399544155988694E-2</v>
       </c>
       <c r="J6" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="S6" s="1">
         <v>3.9178703664221291E-2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="T6" s="1">
         <v>3.3508530309731971E-2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="U6" s="1">
         <v>2.9683532312984855E-2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="V6" s="1">
         <v>2.6669589214847626E-2</v>
       </c>
-      <c r="N6" s="1">
+      <c r="W6" s="1">
         <v>2.4371978495599467E-2</v>
       </c>
-      <c r="O6" s="1">
+      <c r="X6" s="1">
         <v>2.3331809816157813E-2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Y6" s="1">
         <v>2.2645102731349488E-2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Z6" s="1">
         <v>2.1958395646541159E-2</v>
       </c>
-      <c r="R6" s="1">
+      <c r="AA6" s="1">
         <v>2.1880229431779856E-2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="AB6" s="1">
         <v>2.1802063217018549E-2</v>
       </c>
-      <c r="T6" s="1">
+      <c r="AC6" s="1">
         <v>2.1723897002257249E-2</v>
       </c>
-      <c r="U6" s="1">
+      <c r="AD6" s="1">
         <v>2.1645730787495942E-2</v>
       </c>
-      <c r="V6" s="1">
+      <c r="AE6" s="1">
         <v>2.1567564572734638E-2</v>
       </c>
-      <c r="W6" s="1">
+      <c r="AF6" s="1">
         <v>2.1489398357973338E-2</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AG6" s="1">
         <v>2.1411232143212035E-2</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AH6" s="1">
         <v>2.1333065928450728E-2</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AI6" s="1">
         <v>2.1254899713689424E-2</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AJ6" s="1">
         <v>2.1176733498928124E-2</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AK6" s="1">
         <v>2.1098567284166821E-2</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AL6" s="1">
         <v>2.1020401069405517E-2</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AM6" s="1">
         <v>2.0942234854644214E-2</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AN6" s="1">
         <v>2.0864068639882907E-2</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AO6" s="1">
         <v>2.0785902425121603E-2</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AP6" s="1">
         <v>2.0707736210360303E-2</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AQ6" s="1">
         <v>2.0629569995598999E-2</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AR6" s="1">
         <v>2.0551403780837692E-2</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AS6" s="1">
         <v>2.0473237566076389E-2</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AT6" s="1">
         <v>2.0395071351315082E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1322,100 +1531,127 @@
         <v>2.7524738675958185E-2</v>
       </c>
       <c r="G7" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="P7" s="1">
         <v>2.2556969990226838E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="Q7" s="1">
         <v>3.1754821549842736E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="R7" s="1">
         <v>0.10958510374377319</v>
       </c>
-      <c r="J7" s="1">
+      <c r="S7" s="1">
         <v>7.2658491665106781E-2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="T7" s="1">
         <v>6.4501477723212033E-2</v>
       </c>
-      <c r="L7" s="1">
+      <c r="U7" s="1">
         <v>6.0073624291528939E-2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="V7" s="1">
         <v>5.6136906748470543E-2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="W7" s="1">
         <v>5.1717656628571564E-2</v>
       </c>
-      <c r="O7" s="1">
+      <c r="X7" s="1">
         <v>4.6367091247547822E-2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Y7" s="1">
         <v>4.0848079140500038E-2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Z7" s="1">
         <v>3.5190601172069187E-2</v>
       </c>
-      <c r="R7" s="1">
+      <c r="AA7" s="1">
         <v>3.5438278161137753E-2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="AB7" s="1">
         <v>3.5837228383439251E-2</v>
       </c>
-      <c r="T7" s="1">
+      <c r="AC7" s="1">
         <v>3.6179765454107608E-2</v>
       </c>
-      <c r="U7" s="1">
+      <c r="AD7" s="1">
         <v>3.6693132734865901E-2</v>
       </c>
-      <c r="V7" s="1">
+      <c r="AE7" s="1">
         <v>3.7162557637233112E-2</v>
       </c>
-      <c r="W7" s="1">
+      <c r="AF7" s="1">
         <v>3.7273421564079735E-2</v>
       </c>
-      <c r="X7" s="1">
+      <c r="AG7" s="1">
         <v>3.7295868844609774E-2</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AH7" s="1">
         <v>3.7432453541312E-2</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AI7" s="1">
         <v>3.7480314960956801E-2</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AJ7" s="1">
         <v>3.76264025404459E-2</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AK7" s="1">
         <v>3.7001807421689667E-2</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AL7" s="1">
         <v>3.6396439214074351E-2</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AM7" s="1">
         <v>3.5910855944227181E-2</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AN7" s="1">
         <v>3.5339752285810287E-2</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AO7" s="1">
         <v>3.4868474205940726E-2</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AP7" s="1">
         <v>3.4349980576485084E-2</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AQ7" s="1">
         <v>3.3927505295104E-2</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AR7" s="1">
         <v>3.3418274176172831E-2</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AS7" s="1">
         <v>3.3018851102917787E-2</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AT7" s="1">
         <v>3.2532636521895537E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1435,100 +1671,127 @@
         <v>9.4E-2</v>
       </c>
       <c r="G8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P8" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="Q8" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="R8" s="1">
         <v>0.104</v>
       </c>
-      <c r="J8" s="1">
+      <c r="S8" s="1">
         <v>0.106</v>
       </c>
-      <c r="K8" s="1">
+      <c r="T8" s="1">
         <v>0.107</v>
       </c>
-      <c r="L8" s="1">
+      <c r="U8" s="1">
         <v>0.108</v>
       </c>
-      <c r="M8" s="1">
+      <c r="V8" s="1">
         <v>0.109</v>
       </c>
-      <c r="N8" s="1">
+      <c r="W8" s="1">
         <v>0.111</v>
       </c>
-      <c r="O8" s="1">
+      <c r="X8" s="1">
         <v>0.113</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Y8" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Z8" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="R8" s="1">
+      <c r="AA8" s="1">
         <v>0.12</v>
       </c>
-      <c r="S8" s="1">
+      <c r="AB8" s="1">
         <v>0.121</v>
       </c>
-      <c r="T8" s="1">
+      <c r="AC8" s="1">
         <v>0.122</v>
       </c>
-      <c r="U8" s="1">
+      <c r="AD8" s="1">
         <v>0.123</v>
       </c>
-      <c r="V8" s="1">
+      <c r="AE8" s="1">
         <v>0.124</v>
       </c>
-      <c r="W8" s="1">
+      <c r="AF8" s="1">
         <v>0.127</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AG8" s="1">
         <v>0.129</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AH8" s="1">
         <v>0.13</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AI8" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AJ8" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AK8" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AL8" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AM8" s="1">
         <v>0.13900000000000001</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AN8" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AO8" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AP8" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AQ8" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AR8" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AS8" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AT8" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1640,8 +1903,35 @@
       <c r="AK9" s="1">
         <v>0</v>
       </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1753,8 +2043,35 @@
       <c r="AK10" s="1">
         <v>0</v>
       </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1866,8 +2183,35 @@
       <c r="AK11" s="1">
         <v>0</v>
       </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1887,100 +2231,127 @@
         <v>7.4162839057389032E-2</v>
       </c>
       <c r="G12" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="P12" s="1">
         <v>5.9270793267966984E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="Q12" s="1">
         <v>8.6844213682472068E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="R12" s="1">
         <v>9.987405364380024E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="S12" s="1">
         <v>8.9848186169571506E-2</v>
       </c>
-      <c r="K12" s="1">
+      <c r="T12" s="1">
         <v>8.0709805803888562E-2</v>
       </c>
-      <c r="L12" s="1">
+      <c r="U12" s="1">
         <v>7.4545217103161129E-2</v>
       </c>
-      <c r="M12" s="1">
+      <c r="V12" s="1">
         <v>6.968777153502935E-2</v>
       </c>
-      <c r="N12" s="1">
+      <c r="W12" s="1">
         <v>6.5984808790841606E-2</v>
       </c>
-      <c r="O12" s="1">
+      <c r="X12" s="1">
         <v>6.4308412595709019E-2</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Y12" s="1">
         <v>6.32016756145867E-2</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Z12" s="1">
         <v>6.2094938633464367E-2</v>
       </c>
-      <c r="R12" s="1">
+      <c r="AA12" s="1">
         <v>6.1968961426494336E-2</v>
       </c>
-      <c r="S12" s="1">
+      <c r="AB12" s="1">
         <v>6.1842984219524298E-2</v>
       </c>
-      <c r="T12" s="1">
+      <c r="AC12" s="1">
         <v>6.1717007012554274E-2</v>
       </c>
-      <c r="U12" s="1">
+      <c r="AD12" s="1">
         <v>6.1591029805584237E-2</v>
       </c>
-      <c r="V12" s="1">
+      <c r="AE12" s="1">
         <v>6.1465052598614199E-2</v>
       </c>
-      <c r="W12" s="1">
+      <c r="AF12" s="1">
         <v>6.1339075391644175E-2</v>
       </c>
-      <c r="X12" s="1">
+      <c r="AG12" s="1">
         <v>6.1213098184674145E-2</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AH12" s="1">
         <v>6.1087120977704121E-2</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AI12" s="1">
         <v>6.0961143770734083E-2</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AJ12" s="1">
         <v>6.0835166563764059E-2</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AK12" s="1">
         <v>6.0709189356794022E-2</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AL12" s="1">
         <v>6.0583212149823984E-2</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AM12" s="1">
         <v>6.045723494285396E-2</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AN12" s="1">
         <v>6.0331257735883922E-2</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AO12" s="1">
         <v>6.0205280528913899E-2</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AP12" s="1">
         <v>6.0079303321943882E-2</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AQ12" s="1">
         <v>5.9953326114973844E-2</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AR12" s="1">
         <v>5.9827348908003807E-2</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AS12" s="1">
         <v>5.9701371701033769E-2</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AT12" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2092,8 +2463,35 @@
       <c r="AK13" s="1">
         <v>0</v>
       </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2113,100 +2511,127 @@
         <v>0.27239999999999998</v>
       </c>
       <c r="G14" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="P14" s="1">
         <v>0.2893102287382881</v>
       </c>
-      <c r="H14" s="1">
+      <c r="Q14" s="1">
         <v>0.28620579422845271</v>
       </c>
-      <c r="I14" s="1">
+      <c r="R14" s="1">
         <v>0.36583232656913367</v>
       </c>
-      <c r="J14" s="1">
+      <c r="S14" s="1">
         <v>0.44377798262936158</v>
       </c>
-      <c r="K14" s="1">
+      <c r="T14" s="1">
         <v>0.3408795727764326</v>
       </c>
-      <c r="L14" s="1">
+      <c r="U14" s="1">
         <v>0.29844643389338155</v>
       </c>
-      <c r="M14" s="1">
+      <c r="V14" s="1">
         <v>0.27870424408711525</v>
       </c>
-      <c r="N14" s="1">
+      <c r="W14" s="1">
         <v>0.26406947068297998</v>
       </c>
-      <c r="O14" s="1">
+      <c r="X14" s="1">
         <v>0.25961997527047004</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Y14" s="1">
         <v>0.25466789163258652</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Z14" s="1">
         <v>0.25162191511634963</v>
       </c>
-      <c r="R14" s="1">
+      <c r="AA14" s="1">
         <v>0.24436682147144859</v>
       </c>
-      <c r="S14" s="1">
+      <c r="AB14" s="1">
         <v>0.23712769751876733</v>
       </c>
-      <c r="T14" s="1">
+      <c r="AC14" s="1">
         <v>0.22990422386446158</v>
       </c>
-      <c r="U14" s="1">
+      <c r="AD14" s="1">
         <v>0.22269608750256381</v>
       </c>
-      <c r="V14" s="1">
+      <c r="AE14" s="1">
         <v>0.21550298168722576</v>
       </c>
-      <c r="W14" s="1">
+      <c r="AF14" s="1">
         <v>0.21268957803546309</v>
       </c>
-      <c r="X14" s="1">
+      <c r="AG14" s="1">
         <v>0.20989060972061643</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AH14" s="1">
         <v>0.20710578803594751</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AI14" s="1">
         <v>0.20433483004885264</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AJ14" s="1">
         <v>0.20157745848538053</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AK14" s="1">
         <v>0.20382001183120677</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AL14" s="1">
         <v>0.20607561357828016</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AM14" s="1">
         <v>0.20834400275857581</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AN14" s="1">
         <v>0.2106249236234293</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AO14" s="1">
         <v>0.21291812553914952</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AP14" s="1">
         <v>0.21506074795712402</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AQ14" s="1">
         <v>0.21721516509635094</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AR14" s="1">
         <v>0.21938114106240519</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AS14" s="1">
         <v>0.22155844467875013</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AT14" s="1">
         <v>0.22374684939238004</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2226,100 +2651,127 @@
         <v>7.4162839057389032E-2</v>
       </c>
       <c r="G15" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="P15" s="1">
         <v>5.9270793267966984E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="Q15" s="1">
         <v>8.6844213682472068E-2</v>
       </c>
-      <c r="I15" s="1">
+      <c r="R15" s="1">
         <v>9.987405364380024E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="S15" s="1">
         <v>8.9848186169571506E-2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="T15" s="1">
         <v>8.0709805803888562E-2</v>
       </c>
-      <c r="L15" s="1">
+      <c r="U15" s="1">
         <v>7.4545217103161129E-2</v>
       </c>
-      <c r="M15" s="1">
+      <c r="V15" s="1">
         <v>6.968777153502935E-2</v>
       </c>
-      <c r="N15" s="1">
+      <c r="W15" s="1">
         <v>6.5984808790841606E-2</v>
       </c>
-      <c r="O15" s="1">
+      <c r="X15" s="1">
         <v>6.4308412595709019E-2</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Y15" s="1">
         <v>6.32016756145867E-2</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Z15" s="1">
         <v>6.2094938633464367E-2</v>
       </c>
-      <c r="R15" s="1">
+      <c r="AA15" s="1">
         <v>6.1968961426494336E-2</v>
       </c>
-      <c r="S15" s="1">
+      <c r="AB15" s="1">
         <v>6.1842984219524298E-2</v>
       </c>
-      <c r="T15" s="1">
+      <c r="AC15" s="1">
         <v>6.1717007012554274E-2</v>
       </c>
-      <c r="U15" s="1">
+      <c r="AD15" s="1">
         <v>6.1591029805584237E-2</v>
       </c>
-      <c r="V15" s="1">
+      <c r="AE15" s="1">
         <v>6.1465052598614199E-2</v>
       </c>
-      <c r="W15" s="1">
+      <c r="AF15" s="1">
         <v>6.1339075391644175E-2</v>
       </c>
-      <c r="X15" s="1">
+      <c r="AG15" s="1">
         <v>6.1213098184674145E-2</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AH15" s="1">
         <v>6.1087120977704121E-2</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AI15" s="1">
         <v>6.0961143770734083E-2</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AJ15" s="1">
         <v>6.0835166563764059E-2</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AK15" s="1">
         <v>6.0709189356794022E-2</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AL15" s="1">
         <v>6.0583212149823984E-2</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AM15" s="1">
         <v>6.045723494285396E-2</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AN15" s="1">
         <v>6.0331257735883922E-2</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AO15" s="1">
         <v>6.0205280528913899E-2</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AP15" s="1">
         <v>6.0079303321943882E-2</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AQ15" s="1">
         <v>5.9953326114973844E-2</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AR15" s="1">
         <v>5.9827348908003807E-2</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AS15" s="1">
         <v>5.9701371701033769E-2</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AT15" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2339,100 +2791,127 @@
         <v>4.8598360515137926E-2</v>
       </c>
       <c r="G16" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>4.8598360515137926E-2</v>
+      </c>
+      <c r="P16" s="1">
         <v>4.9794752608679535E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="Q16" s="1">
         <v>5.1039503251346256E-2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="R16" s="1">
         <v>9.5513027767655176E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="S16" s="1">
         <v>0.14900315456786425</v>
       </c>
-      <c r="K16" s="1">
+      <c r="T16" s="1">
         <v>0.11232937738230503</v>
       </c>
-      <c r="L16" s="1">
+      <c r="U16" s="1">
         <v>8.943430122584814E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="V16" s="1">
         <v>7.5667559065261236E-2</v>
       </c>
-      <c r="N16" s="1">
+      <c r="W16" s="1">
         <v>7.122030604096162E-2</v>
       </c>
-      <c r="O16" s="1">
+      <c r="X16" s="1">
         <v>6.6773053016662018E-2</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Y16" s="1">
         <v>6.2325799992362409E-2</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Z16" s="1">
         <v>5.78785469680628E-2</v>
       </c>
-      <c r="R16" s="1">
+      <c r="AA16" s="1">
         <v>5.7608665017664769E-2</v>
       </c>
-      <c r="S16" s="1">
+      <c r="AB16" s="1">
         <v>5.7338783067266745E-2</v>
       </c>
-      <c r="T16" s="1">
+      <c r="AC16" s="1">
         <v>5.7068901116868728E-2</v>
       </c>
-      <c r="U16" s="1">
+      <c r="AD16" s="1">
         <v>5.6799019166470698E-2</v>
       </c>
-      <c r="V16" s="1">
+      <c r="AE16" s="1">
         <v>5.6529137216072674E-2</v>
       </c>
-      <c r="W16" s="1">
+      <c r="AF16" s="1">
         <v>5.625925526567465E-2</v>
       </c>
-      <c r="X16" s="1">
+      <c r="AG16" s="1">
         <v>5.5989373315276633E-2</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AH16" s="1">
         <v>5.5719491364878602E-2</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AI16" s="1">
         <v>5.5449609414480572E-2</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AJ16" s="1">
         <v>5.5179727464082555E-2</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AK16" s="1">
         <v>5.4909845513684538E-2</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AL16" s="1">
         <v>5.4639963563286501E-2</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AM16" s="1">
         <v>5.4370081612888477E-2</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AN16" s="1">
         <v>5.410019966249046E-2</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AO16" s="1">
         <v>5.3830317712092429E-2</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AP16" s="1">
         <v>5.3560435761694405E-2</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AQ16" s="1">
         <v>5.3290553811296382E-2</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AR16" s="1">
         <v>5.3020671860898365E-2</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AS16" s="1">
         <v>5.2750789910500334E-2</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AT16" s="1">
         <v>5.2480907960102297E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2461,91 +2940,118 @@
         <v>4.5399544155988694E-2</v>
       </c>
       <c r="J17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>4.5399544155988694E-2</v>
+      </c>
+      <c r="S17" s="1">
         <v>3.9178703664221291E-2</v>
       </c>
-      <c r="K17" s="1">
+      <c r="T17" s="1">
         <v>3.3508530309731971E-2</v>
       </c>
-      <c r="L17" s="1">
+      <c r="U17" s="1">
         <v>2.9683532312984855E-2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="V17" s="1">
         <v>2.6669589214847626E-2</v>
       </c>
-      <c r="N17" s="1">
+      <c r="W17" s="1">
         <v>2.4371978495599467E-2</v>
       </c>
-      <c r="O17" s="1">
+      <c r="X17" s="1">
         <v>2.3331809816157813E-2</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Y17" s="1">
         <v>2.2645102731349488E-2</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Z17" s="1">
         <v>2.1958395646541159E-2</v>
       </c>
-      <c r="R17" s="1">
+      <c r="AA17" s="1">
         <v>2.1880229431779856E-2</v>
       </c>
-      <c r="S17" s="1">
+      <c r="AB17" s="1">
         <v>2.1802063217018549E-2</v>
       </c>
-      <c r="T17" s="1">
+      <c r="AC17" s="1">
         <v>2.1723897002257249E-2</v>
       </c>
-      <c r="U17" s="1">
+      <c r="AD17" s="1">
         <v>2.1645730787495942E-2</v>
       </c>
-      <c r="V17" s="1">
+      <c r="AE17" s="1">
         <v>2.1567564572734638E-2</v>
       </c>
-      <c r="W17" s="1">
+      <c r="AF17" s="1">
         <v>2.1489398357973338E-2</v>
       </c>
-      <c r="X17" s="1">
+      <c r="AG17" s="1">
         <v>2.1411232143212035E-2</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="AH17" s="1">
         <v>2.1333065928450728E-2</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AI17" s="1">
         <v>2.1254899713689424E-2</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AJ17" s="1">
         <v>2.1176733498928124E-2</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AK17" s="1">
         <v>2.1098567284166821E-2</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AL17" s="1">
         <v>2.1020401069405517E-2</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AM17" s="1">
         <v>2.0942234854644214E-2</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AN17" s="1">
         <v>2.0864068639882907E-2</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AO17" s="1">
         <v>2.0785902425121603E-2</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AP17" s="1">
         <v>2.0707736210360303E-2</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AQ17" s="1">
         <v>2.0629569995598999E-2</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AR17" s="1">
         <v>2.0551403780837692E-2</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AS17" s="1">
         <v>2.0473237566076389E-2</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AT17" s="1">
         <v>2.0395071351315082E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2565,100 +3071,127 @@
         <v>2.7524738675958185E-2</v>
       </c>
       <c r="G18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2.7524738675958185E-2</v>
+      </c>
+      <c r="P18" s="1">
         <v>2.2556969990226838E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="Q18" s="1">
         <v>3.1754821549842736E-2</v>
       </c>
-      <c r="I18" s="1">
+      <c r="R18" s="1">
         <v>0.10958510374377319</v>
       </c>
-      <c r="J18" s="1">
+      <c r="S18" s="1">
         <v>7.2658491665106781E-2</v>
       </c>
-      <c r="K18" s="1">
+      <c r="T18" s="1">
         <v>6.4501477723212033E-2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="U18" s="1">
         <v>6.0073624291528939E-2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="V18" s="1">
         <v>5.6136906748470543E-2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="W18" s="1">
         <v>5.1717656628571564E-2</v>
       </c>
-      <c r="O18" s="1">
+      <c r="X18" s="1">
         <v>4.6367091247547822E-2</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Y18" s="1">
         <v>4.0848079140500038E-2</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Z18" s="1">
         <v>3.5190601172069187E-2</v>
       </c>
-      <c r="R18" s="1">
+      <c r="AA18" s="1">
         <v>3.5438278161137753E-2</v>
       </c>
-      <c r="S18" s="1">
+      <c r="AB18" s="1">
         <v>3.5837228383439251E-2</v>
       </c>
-      <c r="T18" s="1">
+      <c r="AC18" s="1">
         <v>3.6179765454107608E-2</v>
       </c>
-      <c r="U18" s="1">
+      <c r="AD18" s="1">
         <v>3.6693132734865901E-2</v>
       </c>
-      <c r="V18" s="1">
+      <c r="AE18" s="1">
         <v>3.7162557637233112E-2</v>
       </c>
-      <c r="W18" s="1">
+      <c r="AF18" s="1">
         <v>3.7273421564079735E-2</v>
       </c>
-      <c r="X18" s="1">
+      <c r="AG18" s="1">
         <v>3.7295868844609774E-2</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AH18" s="1">
         <v>3.7432453541312E-2</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AI18" s="1">
         <v>3.7480314960956801E-2</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AJ18" s="1">
         <v>3.76264025404459E-2</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AK18" s="1">
         <v>3.7001807421689667E-2</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AL18" s="1">
         <v>3.6396439214074351E-2</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AM18" s="1">
         <v>3.5910855944227181E-2</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AN18" s="1">
         <v>3.5339752285810287E-2</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AO18" s="1">
         <v>3.4868474205940726E-2</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AP18" s="1">
         <v>3.4349980576485084E-2</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AQ18" s="1">
         <v>3.3927505295104E-2</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AR18" s="1">
         <v>3.3418274176172831E-2</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AS18" s="1">
         <v>3.3018851102917787E-2</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AT18" s="1">
         <v>3.2532636521895537E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2678,100 +3211,127 @@
         <v>9.4E-2</v>
       </c>
       <c r="G19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P19" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="Q19" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="R19" s="1">
         <v>0.104</v>
       </c>
-      <c r="J19" s="1">
+      <c r="S19" s="1">
         <v>0.106</v>
       </c>
-      <c r="K19" s="1">
+      <c r="T19" s="1">
         <v>0.107</v>
       </c>
-      <c r="L19" s="1">
+      <c r="U19" s="1">
         <v>0.108</v>
       </c>
-      <c r="M19" s="1">
+      <c r="V19" s="1">
         <v>0.109</v>
       </c>
-      <c r="N19" s="1">
+      <c r="W19" s="1">
         <v>0.111</v>
       </c>
-      <c r="O19" s="1">
+      <c r="X19" s="1">
         <v>0.113</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Y19" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Z19" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="R19" s="1">
+      <c r="AA19" s="1">
         <v>0.12</v>
       </c>
-      <c r="S19" s="1">
+      <c r="AB19" s="1">
         <v>0.121</v>
       </c>
-      <c r="T19" s="1">
+      <c r="AC19" s="1">
         <v>0.122</v>
       </c>
-      <c r="U19" s="1">
+      <c r="AD19" s="1">
         <v>0.123</v>
       </c>
-      <c r="V19" s="1">
+      <c r="AE19" s="1">
         <v>0.124</v>
       </c>
-      <c r="W19" s="1">
+      <c r="AF19" s="1">
         <v>0.127</v>
       </c>
-      <c r="X19" s="1">
+      <c r="AG19" s="1">
         <v>0.129</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AH19" s="1">
         <v>0.13</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AI19" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AJ19" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AK19" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AL19" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AM19" s="1">
         <v>0.13900000000000001</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AN19" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AO19" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AP19" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AQ19" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AR19" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AS19" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AT19" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2883,8 +3443,35 @@
       <c r="AK20" s="1">
         <v>0</v>
       </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2904,100 +3491,127 @@
         <v>7.4162839057389032E-2</v>
       </c>
       <c r="G21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>7.4162839057389032E-2</v>
+      </c>
+      <c r="P21" s="1">
         <v>5.9270793267966984E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="Q21" s="1">
         <v>8.6844213682472068E-2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="R21" s="1">
         <v>9.987405364380024E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="S21" s="1">
         <v>8.9848186169571506E-2</v>
       </c>
-      <c r="K21" s="1">
+      <c r="T21" s="1">
         <v>8.0709805803888562E-2</v>
       </c>
-      <c r="L21" s="1">
+      <c r="U21" s="1">
         <v>7.4545217103161129E-2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="V21" s="1">
         <v>6.968777153502935E-2</v>
       </c>
-      <c r="N21" s="1">
+      <c r="W21" s="1">
         <v>6.5984808790841606E-2</v>
       </c>
-      <c r="O21" s="1">
+      <c r="X21" s="1">
         <v>6.4308412595709019E-2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Y21" s="1">
         <v>6.32016756145867E-2</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Z21" s="1">
         <v>6.2094938633464367E-2</v>
       </c>
-      <c r="R21" s="1">
+      <c r="AA21" s="1">
         <v>6.1968961426494336E-2</v>
       </c>
-      <c r="S21" s="1">
+      <c r="AB21" s="1">
         <v>6.1842984219524298E-2</v>
       </c>
-      <c r="T21" s="1">
+      <c r="AC21" s="1">
         <v>6.1717007012554274E-2</v>
       </c>
-      <c r="U21" s="1">
+      <c r="AD21" s="1">
         <v>6.1591029805584237E-2</v>
       </c>
-      <c r="V21" s="1">
+      <c r="AE21" s="1">
         <v>6.1465052598614199E-2</v>
       </c>
-      <c r="W21" s="1">
+      <c r="AF21" s="1">
         <v>6.1339075391644175E-2</v>
       </c>
-      <c r="X21" s="1">
+      <c r="AG21" s="1">
         <v>6.1213098184674145E-2</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AH21" s="1">
         <v>6.1087120977704121E-2</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AI21" s="1">
         <v>6.0961143770734083E-2</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AJ21" s="1">
         <v>6.0835166563764059E-2</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AK21" s="1">
         <v>6.0709189356794022E-2</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AL21" s="1">
         <v>6.0583212149823984E-2</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AM21" s="1">
         <v>6.045723494285396E-2</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AN21" s="1">
         <v>6.0331257735883922E-2</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AO21" s="1">
         <v>6.0205280528913899E-2</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AP21" s="1">
         <v>6.0079303321943882E-2</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AQ21" s="1">
         <v>5.9953326114973844E-2</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AR21" s="1">
         <v>5.9827348908003807E-2</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AS21" s="1">
         <v>5.9701371701033769E-2</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AT21" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3109,8 +3723,35 @@
       <c r="AK22" s="1">
         <v>0</v>
       </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3222,8 +3863,35 @@
       <c r="AK23" s="1">
         <v>0</v>
       </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3335,8 +4003,35 @@
       <c r="AK24" s="1">
         <v>0</v>
       </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3448,11 +4143,57 @@
       <c r="AK25" s="1">
         <v>0</v>
       </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2ECD44-46A9-BC42-9E66-BDC1F9667423}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE04FE-BDE2-5448-A068-3401EC7D15F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B262A22-1A10-2344-8AE7-B843D8769FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="-16000" windowWidth="27080" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>euro/kWh</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>note: the values from 2010 to 2018 are copied from 2019 to hold the place</t>
+  </si>
+  <si>
+    <t>2051</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
@@ -338,9 +344,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AT25" totalsRowShown="0">
-  <autoFilter ref="A1:AT25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AU25" totalsRowShown="0">
+  <autoFilter ref="A1:AU25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="47">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="3" xr3:uid="{1420788D-CCBC-C54D-BB2E-6D34CC34C900}" name="id_sector"/>
@@ -355,38 +361,39 @@
     <tableColumn id="46" xr3:uid="{B0307B9C-E596-9C45-A884-6107206EF60B}" name="2016"/>
     <tableColumn id="47" xr3:uid="{C67527FE-8FCC-884E-8ABE-9B13ADCB88DD}" name="2017"/>
     <tableColumn id="48" xr3:uid="{C57703B5-57A6-5D46-8344-2E20CC964EC4}" name="2018"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="4"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="1"/>
+    <tableColumn id="38" xr3:uid="{07AE53BA-796F-B74F-9776-A38D8481585C}" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AU25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AU19" sqref="AU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +678,7 @@
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -810,8 +817,11 @@
       <c r="AT1" t="s">
         <v>33</v>
       </c>
+      <c r="AU1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="AT2" s="1">
         <v>0.22374684939238004</v>
       </c>
+      <c r="AU2" s="1">
+        <v>0.22374684939238004</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1090,8 +1103,11 @@
       <c r="AT3" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
+      <c r="AU3" s="1">
+        <v>5.9575394494063731E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1230,8 +1246,11 @@
       <c r="AT4" s="1">
         <v>0</v>
       </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1370,8 +1389,11 @@
       <c r="AT5" s="1">
         <v>5.2480907960102297E-2</v>
       </c>
+      <c r="AU5" s="1">
+        <v>5.2480907960102297E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1510,8 +1532,11 @@
       <c r="AT6" s="1">
         <v>2.0395071351315082E-2</v>
       </c>
+      <c r="AU6" s="1">
+        <v>2.0395071351315082E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1650,8 +1675,11 @@
       <c r="AT7" s="1">
         <v>3.2532636521895537E-2</v>
       </c>
+      <c r="AU7" s="1">
+        <v>3.2532636521895537E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1790,8 +1818,11 @@
       <c r="AT8" s="1">
         <v>0.15</v>
       </c>
+      <c r="AU8" s="1">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1930,8 +1961,11 @@
       <c r="AT9" s="1">
         <v>0</v>
       </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2070,8 +2104,11 @@
       <c r="AT10" s="1">
         <v>0</v>
       </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2210,8 +2247,11 @@
       <c r="AT11" s="1">
         <v>0</v>
       </c>
+      <c r="AU11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2350,8 +2390,11 @@
       <c r="AT12" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
+      <c r="AU12" s="1">
+        <v>5.9575394494063731E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2490,8 +2533,11 @@
       <c r="AT13" s="1">
         <v>0</v>
       </c>
+      <c r="AU13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2630,8 +2676,11 @@
       <c r="AT14" s="1">
         <v>0.22374684939238004</v>
       </c>
+      <c r="AU14" s="1">
+        <v>0.22374684939238004</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2770,8 +2819,11 @@
       <c r="AT15" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
+      <c r="AU15" s="1">
+        <v>5.9575394494063731E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2910,8 +2962,11 @@
       <c r="AT16" s="1">
         <v>5.2480907960102297E-2</v>
       </c>
+      <c r="AU16" s="1">
+        <v>5.2480907960102297E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3050,8 +3105,11 @@
       <c r="AT17" s="1">
         <v>2.0395071351315082E-2</v>
       </c>
+      <c r="AU17" s="1">
+        <v>2.0395071351315082E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3190,8 +3248,11 @@
       <c r="AT18" s="1">
         <v>3.2532636521895537E-2</v>
       </c>
+      <c r="AU18" s="1">
+        <v>3.2532636521895537E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3330,8 +3391,11 @@
       <c r="AT19" s="1">
         <v>0.15</v>
       </c>
+      <c r="AU19" s="1">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3470,8 +3534,11 @@
       <c r="AT20" s="1">
         <v>0</v>
       </c>
+      <c r="AU20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3610,8 +3677,11 @@
       <c r="AT21" s="1">
         <v>5.9575394494063731E-2</v>
       </c>
+      <c r="AU21" s="1">
+        <v>5.9575394494063731E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3750,8 +3820,11 @@
       <c r="AT22" s="1">
         <v>0</v>
       </c>
+      <c r="AU22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3890,8 +3963,11 @@
       <c r="AT23" s="1">
         <v>0</v>
       </c>
+      <c r="AU23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4030,8 +4106,11 @@
       <c r="AT24" s="1">
         <v>0</v>
       </c>
+      <c r="AU24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4168,6 +4247,9 @@
         <v>0</v>
       </c>
       <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
         <v>0</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B262A22-1A10-2344-8AE7-B843D8769FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="-16000" windowWidth="27080" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="-16005" windowWidth="27075" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -223,9 +222,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,56 +344,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AU25" totalsRowShown="0">
-  <autoFilter ref="A1:AU25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AU25" totalsRowShown="0">
+  <autoFilter ref="A1:AU25"/>
   <tableColumns count="47">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{1420788D-CCBC-C54D-BB2E-6D34CC34C900}" name="id_sector"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_energy_carrier"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
-    <tableColumn id="40" xr3:uid="{E7703E58-A3F9-A34B-8EBB-3E2100507E4A}" name="2010"/>
-    <tableColumn id="41" xr3:uid="{7AE670AD-D006-4148-BECF-E9F6EDE431B4}" name="2011"/>
-    <tableColumn id="42" xr3:uid="{27D1FBE3-9885-3C43-8875-1B3386244975}" name="2012"/>
-    <tableColumn id="43" xr3:uid="{7E36532A-8A8F-B242-A666-E4A3AE780087}" name="2013"/>
-    <tableColumn id="44" xr3:uid="{34235EF3-9131-1441-8C2B-7A1D3EC65956}" name="2014"/>
-    <tableColumn id="45" xr3:uid="{573BAB0B-5AC8-504D-9AB1-FDBB64F8CEBC}" name="2015"/>
-    <tableColumn id="46" xr3:uid="{B0307B9C-E596-9C45-A884-6107206EF60B}" name="2016"/>
-    <tableColumn id="47" xr3:uid="{C67527FE-8FCC-884E-8ABE-9B13ADCB88DD}" name="2017"/>
-    <tableColumn id="48" xr3:uid="{C57703B5-57A6-5D46-8344-2E20CC964EC4}" name="2018"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="1"/>
-    <tableColumn id="38" xr3:uid="{07AE53BA-796F-B74F-9776-A38D8481585C}" name="2051" dataDxfId="0"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="3" name="id_sector"/>
+    <tableColumn id="4" name="id_energy_carrier"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="40" name="2010"/>
+    <tableColumn id="41" name="2011"/>
+    <tableColumn id="42" name="2012"/>
+    <tableColumn id="43" name="2013"/>
+    <tableColumn id="44" name="2014"/>
+    <tableColumn id="45" name="2015"/>
+    <tableColumn id="46" name="2016"/>
+    <tableColumn id="47" name="2017"/>
+    <tableColumn id="48" name="2018"/>
+    <tableColumn id="6" name="2019" dataDxfId="32"/>
+    <tableColumn id="7" name="2020" dataDxfId="31"/>
+    <tableColumn id="8" name="2021" dataDxfId="30"/>
+    <tableColumn id="9" name="2022" dataDxfId="29"/>
+    <tableColumn id="10" name="2023" dataDxfId="28"/>
+    <tableColumn id="11" name="2024" dataDxfId="27"/>
+    <tableColumn id="12" name="2025" dataDxfId="26"/>
+    <tableColumn id="13" name="2026" dataDxfId="25"/>
+    <tableColumn id="14" name="2027" dataDxfId="24"/>
+    <tableColumn id="15" name="2028" dataDxfId="23"/>
+    <tableColumn id="16" name="2029" dataDxfId="22"/>
+    <tableColumn id="17" name="2030" dataDxfId="21"/>
+    <tableColumn id="18" name="2031" dataDxfId="20"/>
+    <tableColumn id="19" name="2032" dataDxfId="19"/>
+    <tableColumn id="20" name="2033" dataDxfId="18"/>
+    <tableColumn id="21" name="2034" dataDxfId="17"/>
+    <tableColumn id="22" name="2035" dataDxfId="16"/>
+    <tableColumn id="23" name="2036" dataDxfId="15"/>
+    <tableColumn id="24" name="2037" dataDxfId="14"/>
+    <tableColumn id="25" name="2038" dataDxfId="13"/>
+    <tableColumn id="26" name="2039" dataDxfId="12"/>
+    <tableColumn id="27" name="2040" dataDxfId="11"/>
+    <tableColumn id="28" name="2041" dataDxfId="10"/>
+    <tableColumn id="29" name="2042" dataDxfId="9"/>
+    <tableColumn id="30" name="2043" dataDxfId="8"/>
+    <tableColumn id="31" name="2044" dataDxfId="7"/>
+    <tableColumn id="32" name="2045" dataDxfId="6"/>
+    <tableColumn id="33" name="2046" dataDxfId="5"/>
+    <tableColumn id="34" name="2047" dataDxfId="4"/>
+    <tableColumn id="35" name="2048" dataDxfId="3"/>
+    <tableColumn id="36" name="2049" dataDxfId="2"/>
+    <tableColumn id="37" name="2050" dataDxfId="1"/>
+    <tableColumn id="38" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -661,24 +661,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AU19" sqref="AU19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:AU29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -821,7 +821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0.22374684939238004</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1124,133 +1124,133 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>6.371098956E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>8.3524673699999996E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>6.4409172048000007E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>5.7368552832E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>5.3267649372E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>4.1721915743999999E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>4.3926702588000001E-2</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>6.210149518799999E-2</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>6.5041210944000005E-2</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>6.4503506015999995E-2</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>3.8893990464000001E-2</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>6.078174436799999E-2</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>5.8999937831999999E-2</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>5.7270847428000003E-2</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>5.5594473227999999E-2</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>5.3970815159999998E-2</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>5.4139506912E-2</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>5.4308198664000003E-2</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>5.4476890416000005E-2</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>5.4645582132000006E-2</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>5.4814273883999995E-2</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>5.4824817131999999E-2</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>5.4845903591999999E-2</v>
       </c>
       <c r="AC4" s="1">
-        <v>0</v>
+        <v>5.4856446840000003E-2</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>5.4866990051999999E-2</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>5.4877533300000003E-2</v>
       </c>
       <c r="AF4" s="1">
-        <v>0</v>
+        <v>5.5151657388E-2</v>
       </c>
       <c r="AG4" s="1">
-        <v>0</v>
+        <v>5.5436324687999999E-2</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>5.5720992024E-2</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>5.5995116111999997E-2</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>5.6279783412000003E-2</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>5.6743685711999996E-2</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>5.7197044800000006E-2</v>
       </c>
       <c r="AM4" s="1">
-        <v>0</v>
+        <v>5.7671490311999994E-2</v>
       </c>
       <c r="AN4" s="1">
-        <v>0</v>
+        <v>5.8135392612E-2</v>
       </c>
       <c r="AO4" s="1">
-        <v>0</v>
+        <v>5.8609838159999997E-2</v>
       </c>
       <c r="AP4" s="1">
-        <v>0</v>
+        <v>5.9084283707999993E-2</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0</v>
+        <v>5.9569272468000006E-2</v>
       </c>
       <c r="AR4" s="1">
-        <v>0</v>
+        <v>6.0054261228000005E-2</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>6.0539249987999998E-2</v>
       </c>
       <c r="AT4" s="1">
-        <v>0</v>
+        <v>6.1034781996000008E-2</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>6.1034781996000008E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>5.2480907960102297E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>2.0395071351315082E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>3.2532636521895537E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2125,133 +2125,133 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>0.25468054685999997</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>0.25118802651600003</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>0.24769550620800002</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>0.24420298590000003</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>0.24071046555599998</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>0.237217945248</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>0.233725424904</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>0.23023290459600002</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>0.22674038425199999</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>0.22986783781199999</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>0.134219882628</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>0.22270075671600001</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>0.21918237145199998</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>0.21566398618800001</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>0.212145600888</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>0.20849690505599999</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>0.21605491785600001</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>0.22413417292799998</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>0.232083117432</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>0.24016237250399999</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>0.24850224871200002</v>
       </c>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.25162970230800003</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.25475715586799996</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.25749367776000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0</v>
+        <v>0.26062113131999998</v>
       </c>
       <c r="AE11" s="1">
-        <v>0</v>
+        <v>0.263618274348</v>
       </c>
       <c r="AF11" s="1">
-        <v>0</v>
+        <v>0.26583355396800001</v>
       </c>
       <c r="AG11" s="1">
-        <v>0</v>
+        <v>0.26817914411999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>0</v>
+        <v>0.27039442374</v>
       </c>
       <c r="AI11" s="1">
-        <v>0</v>
+        <v>0.27300063506399996</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0</v>
+        <v>0.27521591468400003</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>0.27834336824400002</v>
       </c>
       <c r="AL11" s="1">
-        <v>0</v>
+        <v>0.28094957956800004</v>
       </c>
       <c r="AM11" s="1">
-        <v>0</v>
+        <v>0.28407703312799998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0</v>
+        <v>0.28720448672399995</v>
       </c>
       <c r="AO11" s="1">
-        <v>0</v>
+        <v>0.290331940284</v>
       </c>
       <c r="AP11" s="1">
-        <v>0</v>
+        <v>0.29345939387999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>0</v>
+        <v>0.29658684743999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>0</v>
+        <v>0.29971430103599994</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>0.30284175459599999</v>
       </c>
       <c r="AT11" s="1">
-        <v>0</v>
+        <v>0.30636013985999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>0</v>
+        <v>0.30636013985999999</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2411,133 +2411,133 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>0.33002762695199994</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>0.33002762695199994</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>0.33002762695199994</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>0.33002762695199994</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>0.33002762695199994</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>0.33002762695199994</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>0.33002762695199994</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>0.33002762695199994</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>0.33002762695199994</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>0.334579732164</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>0.3276</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>0.32414782438799999</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>0.31902670605600003</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>0.31390558768799998</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>0.30878446935600001</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>0.30347367994800001</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
+        <v>0.29861807785200001</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>0.29357552590071445</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>0.28853297394942851</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>0.28349042199814295</v>
       </c>
       <c r="Z13" s="1">
-        <v>0</v>
+        <v>0.27844787004685706</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.2734053180955715</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.26836276614428556</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.263320214193</v>
       </c>
       <c r="AD13" s="1">
-        <v>0</v>
+        <v>0.25827766224171445</v>
       </c>
       <c r="AE13" s="1">
-        <v>0</v>
+        <v>0.25323511029042856</v>
       </c>
       <c r="AF13" s="1">
-        <v>0</v>
+        <v>0.24819255833914297</v>
       </c>
       <c r="AG13" s="1">
-        <v>0</v>
+        <v>0.24315000638785703</v>
       </c>
       <c r="AH13" s="1">
-        <v>0</v>
+        <v>0.23810745443657147</v>
       </c>
       <c r="AI13" s="1">
-        <v>0</v>
+        <v>0.23306490248528555</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>0.228022350534</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>0.22297979858271444</v>
       </c>
       <c r="AL13" s="1">
-        <v>0</v>
+        <v>0.21793724663142852</v>
       </c>
       <c r="AM13" s="1">
-        <v>0</v>
+        <v>0.21289469468014297</v>
       </c>
       <c r="AN13" s="1">
-        <v>0</v>
+        <v>0.20785214272885705</v>
       </c>
       <c r="AO13" s="1">
-        <v>0</v>
+        <v>0.20280959077757149</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>0.19776703882628557</v>
       </c>
       <c r="AQ13" s="1">
-        <v>0</v>
+        <v>0.19272448687499999</v>
       </c>
       <c r="AR13" s="1">
-        <v>0</v>
+        <v>0.18768193492371443</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>0.18263938297242852</v>
       </c>
       <c r="AT13" s="1">
-        <v>0</v>
+        <v>0.17759683102114299</v>
       </c>
       <c r="AU13" s="1">
-        <v>0</v>
+        <v>0.17759683102114299</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0.22374684939238004</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>5.2480907960102297E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>2.0395071351315082E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>3.2532636521895537E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3412,133 +3412,133 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="O20" s="1">
-        <v>0</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>5.9270793267966984E-2</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>8.6844213682472068E-2</v>
       </c>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>9.987405364380024E-2</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>8.9848186169571506E-2</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>8.0709805803888562E-2</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>7.4545217103161129E-2</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
+        <v>6.968777153502935E-2</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>6.5984808790841606E-2</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>6.4308412595709019E-2</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>6.32016756145867E-2</v>
       </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>6.2094938633464367E-2</v>
       </c>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>6.1968961426494336E-2</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>6.1842984219524298E-2</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>6.1717007012554274E-2</v>
       </c>
       <c r="AD20" s="1">
-        <v>0</v>
+        <v>6.1591029805584237E-2</v>
       </c>
       <c r="AE20" s="1">
-        <v>0</v>
+        <v>6.1465052598614199E-2</v>
       </c>
       <c r="AF20" s="1">
-        <v>0</v>
+        <v>6.1339075391644175E-2</v>
       </c>
       <c r="AG20" s="1">
-        <v>0</v>
+        <v>6.1213098184674145E-2</v>
       </c>
       <c r="AH20" s="1">
-        <v>0</v>
+        <v>6.1087120977704121E-2</v>
       </c>
       <c r="AI20" s="1">
-        <v>0</v>
+        <v>6.0961143770734083E-2</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0</v>
+        <v>6.0835166563764059E-2</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>6.0709189356794022E-2</v>
       </c>
       <c r="AL20" s="1">
-        <v>0</v>
+        <v>6.0583212149823984E-2</v>
       </c>
       <c r="AM20" s="1">
-        <v>0</v>
+        <v>6.045723494285396E-2</v>
       </c>
       <c r="AN20" s="1">
-        <v>0</v>
+        <v>6.0331257735883922E-2</v>
       </c>
       <c r="AO20" s="1">
-        <v>0</v>
+        <v>6.0205280528913899E-2</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>6.0079303321943882E-2</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0</v>
+        <v>5.9953326114973844E-2</v>
       </c>
       <c r="AR20" s="1">
-        <v>0</v>
+        <v>5.9827348908003807E-2</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>5.9701371701033769E-2</v>
       </c>
       <c r="AT20" s="1">
-        <v>0</v>
+        <v>5.9575394494063731E-2</v>
       </c>
       <c r="AU20" s="1">
-        <v>0</v>
+        <v>5.9575394494063731E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3555,133 +3555,133 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>5.9270793267966984E-2</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.6844213682472068E-2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>9.987405364380024E-2</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>8.9848186169571506E-2</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>8.0709805803888562E-2</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>7.4545217103161129E-2</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>6.968777153502935E-2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>6.5984808790841606E-2</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>6.4308412595709019E-2</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>6.32016756145867E-2</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>6.2094938633464367E-2</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.1968961426494336E-2</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="1">
-        <v>6.1842984219524298E-2</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="1">
-        <v>6.1717007012554274E-2</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>6.1591029805584237E-2</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>6.1465052598614199E-2</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.1339075391644175E-2</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <v>6.1213098184674145E-2</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>6.1087120977704121E-2</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>6.0961143770734083E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>6.0835166563764059E-2</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.0709189356794022E-2</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>6.0583212149823984E-2</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="1">
-        <v>6.045723494285396E-2</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="1">
-        <v>6.0331257735883922E-2</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>6.0205280528913899E-2</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.0079303321943882E-2</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>5.9953326114973844E-2</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>5.9827348908003807E-2</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>5.9701371701033769E-2</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>5.9575394494063731E-2</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.9575394494063731E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3841,133 +3841,133 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>0.30862373122800002</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>0.30439098280799998</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>0.30015823442399997</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>0.29592548600399998</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>0.29169273762000003</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>0.28745998919999999</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>0.28322724081600004</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>0.27899449239599999</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>0.27476174401199999</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>0.278551561176</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>0.16264631973599999</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>0.26986656351599997</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>0.26560301922000001</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>0.261339474924</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>0.25707593059199996</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>0.25265447726400003</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>0.26181320205600001</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>0.27160356304800004</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>0.281236015008</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>0.29102637599999998</v>
       </c>
       <c r="Z23" s="1">
-        <v>0</v>
+        <v>0.30113255509199999</v>
       </c>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.30492237222000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.30871218938400002</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.31202827941600003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0</v>
+        <v>0.31581809657999999</v>
       </c>
       <c r="AE23" s="1">
-        <v>0</v>
+        <v>0.31945000467600004</v>
       </c>
       <c r="AF23" s="1">
-        <v>0</v>
+        <v>0.32213445850799999</v>
       </c>
       <c r="AG23" s="1">
-        <v>0</v>
+        <v>0.32497682137199996</v>
       </c>
       <c r="AH23" s="1">
-        <v>0</v>
+        <v>0.32766127520400001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0</v>
+        <v>0.33081945616800001</v>
       </c>
       <c r="AJ23" s="1">
-        <v>0</v>
+        <v>0.33350390996399998</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>0.33729372712799999</v>
       </c>
       <c r="AL23" s="1">
-        <v>0</v>
+        <v>0.34045190809199999</v>
       </c>
       <c r="AM23" s="1">
-        <v>0</v>
+        <v>0.344241725256</v>
       </c>
       <c r="AN23" s="1">
-        <v>0</v>
+        <v>0.34803154242000001</v>
       </c>
       <c r="AO23" s="1">
-        <v>0</v>
+        <v>0.35182135958399996</v>
       </c>
       <c r="AP23" s="1">
-        <v>0</v>
+        <v>0.35561117674800002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>0</v>
+        <v>0.359400993876</v>
       </c>
       <c r="AR23" s="1">
-        <v>0</v>
+        <v>0.36319081104000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0</v>
+        <v>0.36698062824</v>
       </c>
       <c r="AT23" s="1">
-        <v>0</v>
+        <v>0.37124417268000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>0</v>
+        <v>0.37124417268000004</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4127,131 +4127,175 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>0.54773038152000009</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>0.54773038152000009</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>0.54773038152000009</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>0.54773038152000009</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>0.54773038152000009</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>0.54773038152000009</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>0.54773038152000009</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>0.54773038152000009</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>0.54773038152000009</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>0.55528528320000003</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>0.53797196664000002</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>0.52947270215999998</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>0.52097343768000004</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>0.51247417319999999</v>
       </c>
       <c r="U25" s="1">
-        <v>0</v>
+        <v>0.50366012076</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>0.49613028768</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>0.48802579947000002</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>0.47992131125999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>0.47181682305</v>
       </c>
       <c r="Z25" s="1">
-        <v>0</v>
+        <v>0.46371233483999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.45560784663000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.44750335842</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.43939887021000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0</v>
+        <v>0.43129438199999998</v>
       </c>
       <c r="AE25" s="1">
-        <v>0</v>
+        <v>0.42318989378999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>0</v>
+        <v>0.41508540557999996</v>
       </c>
       <c r="AG25" s="1">
-        <v>0</v>
+        <v>0.40698091736999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>0</v>
+        <v>0.39887642915999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0</v>
+        <v>0.39077194094999995</v>
       </c>
       <c r="AJ25" s="1">
-        <v>0</v>
+        <v>0.38266745274000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>0.37456296452999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>0.36645847632</v>
       </c>
       <c r="AM25" s="1">
-        <v>0</v>
+        <v>0.35835398811000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0</v>
+        <v>0.35024949989999998</v>
       </c>
       <c r="AO25" s="1">
-        <v>0</v>
+        <v>0.34214501169</v>
       </c>
       <c r="AP25" s="1">
-        <v>0</v>
+        <v>0.33404052347999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>0</v>
+        <v>0.32593603526999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>0</v>
+        <v>0.31783154705999994</v>
       </c>
       <c r="AS25" s="1">
-        <v>0</v>
+        <v>0.30972705884999996</v>
       </c>
       <c r="AT25" s="1">
-        <v>0</v>
+        <v>0.30162257064000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.29351808242999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4263,14 +4307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2ECD44-46A9-BC42-9E66-BDC1F9667423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_Wholesale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="-16005" windowWidth="27075" windowHeight="13320"/>
+    <workbookView xWindow="5055" yWindow="-16005" windowWidth="27075" windowHeight="13320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>euro/kWh</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>2051</t>
+  </si>
+  <si>
+    <t>prices may not be wholesale, but they are what applies to respective end-users before tax</t>
   </si>
 </sst>
 </file>
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:AU29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,130 +841,130 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.11015</v>
       </c>
       <c r="G2" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.10994999999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.10795</v>
       </c>
       <c r="I2" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.10875</v>
       </c>
       <c r="J2" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.10625000000000001</v>
       </c>
       <c r="K2" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.10195</v>
       </c>
       <c r="L2" s="1">
-        <v>0.27239999999999998</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="M2" s="1">
-        <v>0.27239999999999998</v>
+        <v>9.8699999999999996E-2</v>
       </c>
       <c r="N2" s="1">
-        <v>0.27239999999999998</v>
+        <v>9.5649999999999999E-2</v>
       </c>
       <c r="O2" s="1">
-        <v>0.27239999999999998</v>
+        <v>9.4349999999999989E-2</v>
       </c>
       <c r="P2" s="1">
-        <v>0.2893102287382881</v>
+        <v>0.1004</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.28620579422845271</v>
+        <v>0.10575</v>
       </c>
       <c r="R2" s="1">
-        <v>0.36583232656913367</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>0.44377798262936158</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="T2" s="1">
-        <v>0.3408795727764326</v>
+        <v>0.24087957277643299</v>
       </c>
       <c r="U2" s="1">
-        <v>0.29844643389338155</v>
+        <v>0.23844643389338155</v>
       </c>
       <c r="V2" s="1">
-        <v>0.27870424408711525</v>
+        <v>0.21870424408711525</v>
       </c>
       <c r="W2" s="1">
-        <v>0.26406947068297998</v>
+        <v>0.20406947068297998</v>
       </c>
       <c r="X2" s="1">
-        <v>0.25961997527047004</v>
+        <v>0.19961997527047004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.25466789163258652</v>
+        <v>0.19466789163258652</v>
       </c>
       <c r="Z2" s="1">
-        <v>0.25162191511634963</v>
+        <v>0.19162191511634963</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.24436682147144859</v>
+        <v>0.18436682147144859</v>
       </c>
       <c r="AB2" s="1">
-        <v>0.23712769751876733</v>
+        <v>0.17712769751876734</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.22990422386446158</v>
+        <v>0.16990422386446158</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.22269608750256381</v>
+        <v>0.16269608750256381</v>
       </c>
       <c r="AE2" s="1">
-        <v>0.21550298168722576</v>
+        <v>0.15550298168722576</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.21268957803546309</v>
+        <v>0.1526895780354631</v>
       </c>
       <c r="AG2" s="1">
-        <v>0.20989060972061643</v>
+        <v>0.14989060972061644</v>
       </c>
       <c r="AH2" s="1">
-        <v>0.20710578803594751</v>
+        <v>0.14710578803594751</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.20433483004885264</v>
+        <v>0.14433483004885264</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0.20157745848538053</v>
+        <v>0.14157745848538053</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.20382001183120677</v>
+        <v>0.14382001183120677</v>
       </c>
       <c r="AL2" s="1">
-        <v>0.20607561357828016</v>
+        <v>0.14607561357828017</v>
       </c>
       <c r="AM2" s="1">
-        <v>0.20834400275857581</v>
+        <v>0.14834400275857582</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.2106249236234293</v>
+        <v>0.1506249236234293</v>
       </c>
       <c r="AO2" s="1">
-        <v>0.21291812553914952</v>
+        <v>0.15291812553914952</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.21506074795712402</v>
+        <v>0.15506074795712402</v>
       </c>
       <c r="AQ2" s="1">
-        <v>0.21721516509635094</v>
+        <v>0.15721516509635095</v>
       </c>
       <c r="AR2" s="1">
-        <v>0.21938114106240519</v>
+        <v>0.1593811410624052</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.22155844467875013</v>
+        <v>0.16155844467875013</v>
       </c>
       <c r="AT2" s="1">
-        <v>0.22374684939238004</v>
+        <v>0.16374684939238004</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.22374684939238004</v>
+        <v>0.16374684939238004</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -981,130 +984,130 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>8.4990613559767822E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0.10590453417395153</v>
       </c>
       <c r="H3" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0.11532321473423994</v>
       </c>
       <c r="I3" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0.10835190786284538</v>
       </c>
       <c r="J3" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>9.9823181371245642E-2</v>
       </c>
       <c r="K3" s="1">
         <v>7.4162839057389032E-2</v>
       </c>
       <c r="L3" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>6.1703482095747671E-2</v>
       </c>
       <c r="M3" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>7.1492976851323026E-2</v>
       </c>
       <c r="N3" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>8.7067173053374719E-2</v>
       </c>
       <c r="O3" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>8.491645072071044E-2</v>
       </c>
       <c r="P3" s="1">
-        <v>5.9270793267966984E-2</v>
+        <v>6.2964250359723292E-2</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.6844213682472068E-2</v>
+        <v>8.9292058225096393E-2</v>
       </c>
       <c r="R3" s="1">
-        <v>9.987405364380024E-2</v>
+        <v>0.1670147135572401</v>
       </c>
       <c r="S3" s="1">
-        <v>8.9848186169571506E-2</v>
+        <v>0.189848186169571</v>
       </c>
       <c r="T3" s="1">
-        <v>8.0709805803888562E-2</v>
+        <v>0.18070980580388801</v>
       </c>
       <c r="U3" s="1">
-        <v>7.4545217103161129E-2</v>
+        <v>0.17454521710316101</v>
       </c>
       <c r="V3" s="1">
-        <v>6.968777153502935E-2</v>
+        <v>0.16968777153502901</v>
       </c>
       <c r="W3" s="1">
-        <v>6.5984808790841606E-2</v>
+        <v>0.15984808790841601</v>
       </c>
       <c r="X3" s="1">
-        <v>6.4308412595709019E-2</v>
+        <v>0.14308412595709</v>
       </c>
       <c r="Y3" s="1">
-        <v>6.32016756145867E-2</v>
+        <v>0.123201675614586</v>
       </c>
       <c r="Z3" s="1">
-        <v>6.2094938633464367E-2</v>
+        <v>0.10620949386334599</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.1968961426494336E-2</v>
+        <v>8.1968961426494305E-2</v>
       </c>
       <c r="AB3" s="1">
-        <v>6.1842984219524298E-2</v>
+        <v>8.1842984219524295E-2</v>
       </c>
       <c r="AC3" s="1">
-        <v>6.1717007012554274E-2</v>
+        <v>8.1717007012554299E-2</v>
       </c>
       <c r="AD3" s="1">
-        <v>6.1591029805584237E-2</v>
+        <v>8.1591029805584206E-2</v>
       </c>
       <c r="AE3" s="1">
-        <v>6.1465052598614199E-2</v>
+        <v>8.1465052598614196E-2</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.1339075391644175E-2</v>
+        <v>8.13390753916442E-2</v>
       </c>
       <c r="AG3" s="1">
-        <v>6.1213098184674145E-2</v>
+        <v>8.1213098184674107E-2</v>
       </c>
       <c r="AH3" s="1">
-        <v>6.1087120977704121E-2</v>
+        <v>8.1087120977704097E-2</v>
       </c>
       <c r="AI3" s="1">
-        <v>6.0961143770734083E-2</v>
+        <v>8.0961143770734101E-2</v>
       </c>
       <c r="AJ3" s="1">
-        <v>6.0835166563764059E-2</v>
+        <v>8.0835166563764105E-2</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.0709189356794022E-2</v>
+        <v>8.0709189356793998E-2</v>
       </c>
       <c r="AL3" s="1">
-        <v>6.0583212149823984E-2</v>
+        <v>8.0583212149824002E-2</v>
       </c>
       <c r="AM3" s="1">
-        <v>6.045723494285396E-2</v>
+        <v>8.0457234942854006E-2</v>
       </c>
       <c r="AN3" s="1">
-        <v>6.0331257735883922E-2</v>
+        <v>8.0331257735883899E-2</v>
       </c>
       <c r="AO3" s="1">
-        <v>6.0205280528913899E-2</v>
+        <v>8.0205280528913903E-2</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.0079303321943882E-2</v>
+        <v>8.0079303321943907E-2</v>
       </c>
       <c r="AQ3" s="1">
-        <v>5.9953326114973844E-2</v>
+        <v>7.9953326114973799E-2</v>
       </c>
       <c r="AR3" s="1">
-        <v>5.9827348908003807E-2</v>
+        <v>7.9827348908003803E-2</v>
       </c>
       <c r="AS3" s="1">
-        <v>5.9701371701033769E-2</v>
+        <v>7.9701371701033794E-2</v>
       </c>
       <c r="AT3" s="1">
-        <v>5.9575394494063731E-2</v>
+        <v>7.95753944940637E-2</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.9575394494063731E-2</v>
+        <v>7.95753944940637E-2</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -1142,58 +1145,58 @@
         <v>4.1721915743999999E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>4.3926702588000001E-2</v>
+        <v>4.0678867850400001E-2</v>
       </c>
       <c r="M4" s="1">
-        <v>6.210149518799999E-2</v>
+        <v>5.8953066946271997E-2</v>
       </c>
       <c r="N4" s="1">
-        <v>6.5041210944000005E-2</v>
+        <v>6.0121280587104003E-2</v>
       </c>
       <c r="O4" s="1">
-        <v>6.4503506015999995E-2</v>
+        <v>5.2152394679999999E-2</v>
       </c>
       <c r="P4" s="1">
-        <v>3.8893990464000001E-2</v>
+        <v>4.0011317198495995E-2</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.078174436799999E-2</v>
+        <v>7.0426593775872001E-2</v>
       </c>
       <c r="R4" s="1">
-        <v>5.8999937831999999E-2</v>
+        <v>0.184452589504224</v>
       </c>
       <c r="S4" s="1">
-        <v>5.7270847428000003E-2</v>
+        <v>0.25727084742799999</v>
       </c>
       <c r="T4" s="1">
-        <v>5.5594473227999999E-2</v>
+        <v>0.255594473228</v>
       </c>
       <c r="U4" s="1">
-        <v>5.3970815159999998E-2</v>
+        <v>0.25397081515999997</v>
       </c>
       <c r="V4" s="1">
-        <v>5.4139506912E-2</v>
+        <v>0.23139506911999999</v>
       </c>
       <c r="W4" s="1">
-        <v>5.4308198664000003E-2</v>
+        <v>0.2108198664</v>
       </c>
       <c r="X4" s="1">
-        <v>5.4476890416000005E-2</v>
+        <v>0.194476890416</v>
       </c>
       <c r="Y4" s="1">
-        <v>5.4645582132000006E-2</v>
+        <v>0.154645582132</v>
       </c>
       <c r="Z4" s="1">
-        <v>5.4814273883999995E-2</v>
+        <v>0.104814273884</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.4824817131999999E-2</v>
+        <v>9.4824817132E-2</v>
       </c>
       <c r="AB4" s="1">
-        <v>5.4845903591999999E-2</v>
+        <v>8.4845903592000005E-2</v>
       </c>
       <c r="AC4" s="1">
-        <v>5.4856446840000003E-2</v>
+        <v>7.4856446839999993E-2</v>
       </c>
       <c r="AD4" s="1">
         <v>5.4866990051999999E-2</v>
@@ -1267,46 +1270,46 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>4.0250000000000001E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>4.795E-2</v>
       </c>
       <c r="J5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>4.5350000000000001E-2</v>
       </c>
       <c r="K5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>4.3650000000000001E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="M5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>3.9099999999999996E-2</v>
       </c>
       <c r="N5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>3.805E-2</v>
       </c>
       <c r="O5" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="P5" s="1">
-        <v>4.9794752608679535E-2</v>
+        <v>3.8349999999999995E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.1039503251346256E-2</v>
+        <v>4.0550000000000003E-2</v>
       </c>
       <c r="R5" s="1">
-        <v>9.5513027767655176E-2</v>
+        <v>5.6950000000000001E-2</v>
       </c>
       <c r="S5" s="1">
-        <v>0.14900315456786425</v>
+        <v>8.695E-2</v>
       </c>
       <c r="T5" s="1">
         <v>0.11232937738230503</v>
@@ -1553,130 +1556,130 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="L7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.4404000000000001E-2</v>
       </c>
       <c r="M7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.2780000000000007E-2</v>
       </c>
       <c r="N7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.3476000000000003E-2</v>
       </c>
       <c r="O7" s="1">
-        <v>2.7524738675958185E-2</v>
+        <v>5.1678000000000002E-2</v>
       </c>
       <c r="P7" s="1">
-        <v>2.2556969990226838E-2</v>
+        <v>4.6226000000000003E-2</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.1754821549842736E-2</v>
+        <v>4.6342000000000008E-2</v>
       </c>
       <c r="R7" s="1">
-        <v>0.10958510374377319</v>
+        <v>7.5574000000000002E-2</v>
       </c>
       <c r="S7" s="1">
         <v>7.2658491665106781E-2</v>
       </c>
       <c r="T7" s="1">
-        <v>6.4501477723212033E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="U7" s="1">
-        <v>6.0073624291528939E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="V7" s="1">
-        <v>5.6136906748470543E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="W7" s="1">
-        <v>5.1717656628571564E-2</v>
+        <v>0.104</v>
       </c>
       <c r="X7" s="1">
-        <v>4.6367091247547822E-2</v>
+        <v>0.106</v>
       </c>
       <c r="Y7" s="1">
-        <v>4.0848079140500038E-2</v>
+        <v>0.107</v>
       </c>
       <c r="Z7" s="1">
-        <v>3.5190601172069187E-2</v>
+        <v>0.108</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.5438278161137753E-2</v>
+        <v>0.109</v>
       </c>
       <c r="AB7" s="1">
-        <v>3.5837228383439251E-2</v>
+        <v>0.111</v>
       </c>
       <c r="AC7" s="1">
-        <v>3.6179765454107608E-2</v>
+        <v>0.113</v>
       </c>
       <c r="AD7" s="1">
-        <v>3.6693132734865901E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="AE7" s="1">
-        <v>3.7162557637233112E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.7273421564079735E-2</v>
+        <v>0.12</v>
       </c>
       <c r="AG7" s="1">
-        <v>3.7295868844609774E-2</v>
+        <v>0.121</v>
       </c>
       <c r="AH7" s="1">
-        <v>3.7432453541312E-2</v>
+        <v>0.122</v>
       </c>
       <c r="AI7" s="1">
-        <v>3.7480314960956801E-2</v>
+        <v>0.123</v>
       </c>
       <c r="AJ7" s="1">
-        <v>3.76264025404459E-2</v>
+        <v>0.124</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.7001807421689667E-2</v>
+        <v>0.127</v>
       </c>
       <c r="AL7" s="1">
-        <v>3.6396439214074351E-2</v>
+        <v>0.129</v>
       </c>
       <c r="AM7" s="1">
-        <v>3.5910855944227181E-2</v>
+        <v>0.13</v>
       </c>
       <c r="AN7" s="1">
-        <v>3.5339752285810287E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="AO7" s="1">
-        <v>3.4868474205940726E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.4349980576485084E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>3.3927505295104E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>3.3418274176172831E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>3.3018851102917787E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AT7" s="1">
-        <v>3.2532636521895537E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.2532636521895537E-2</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -1696,130 +1699,130 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>9.4E-2</v>
+        <v>6.4447507140871066E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>9.4E-2</v>
+        <v>6.8378137610912687E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>9.4E-2</v>
+        <v>7.431116473550381E-2</v>
       </c>
       <c r="I8" s="1">
-        <v>9.4E-2</v>
+        <v>7.6684375585340261E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>9.4E-2</v>
+        <v>7.6165235711938534E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>9.4E-2</v>
+        <v>7.4162839057389032E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>9.4E-2</v>
+        <v>7.0603022782634361E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>9.4E-2</v>
+        <v>6.8378137610912687E-2</v>
       </c>
       <c r="N8" s="1">
-        <v>9.4E-2</v>
+        <v>6.9638905874888302E-2</v>
       </c>
       <c r="O8" s="1">
-        <v>9.4E-2</v>
+        <v>7.275374511529864E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>7.1567139690380407E-2</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>7.238293092001169E-2</v>
       </c>
       <c r="R8" s="1">
-        <v>0.104</v>
+        <v>8.9366221064153789E-2</v>
       </c>
       <c r="S8" s="1">
-        <v>0.106</v>
+        <v>8.9848186169571506E-2</v>
       </c>
       <c r="T8" s="1">
-        <v>0.107</v>
+        <v>8.0709805803888562E-2</v>
       </c>
       <c r="U8" s="1">
-        <v>0.108</v>
+        <v>7.4545217103161129E-2</v>
       </c>
       <c r="V8" s="1">
-        <v>0.109</v>
+        <v>6.968777153502935E-2</v>
       </c>
       <c r="W8" s="1">
-        <v>0.111</v>
+        <v>6.5984808790841606E-2</v>
       </c>
       <c r="X8" s="1">
-        <v>0.113</v>
+        <v>6.4308412595709019E-2</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.11700000000000001</v>
+        <v>6.32016756145867E-2</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.11899999999999999</v>
+        <v>6.2094938633464367E-2</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.12</v>
+        <v>6.1968961426494336E-2</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.121</v>
+        <v>6.1842984219524298E-2</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.122</v>
+        <v>6.1717007012554274E-2</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.123</v>
+        <v>6.1591029805584237E-2</v>
       </c>
       <c r="AE8" s="1">
-        <v>0.124</v>
+        <v>6.1465052598614199E-2</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.127</v>
+        <v>6.1339075391644175E-2</v>
       </c>
       <c r="AG8" s="1">
-        <v>0.129</v>
+        <v>6.1213098184674145E-2</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.13</v>
+        <v>6.1087120977704121E-2</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.13200000000000001</v>
+        <v>6.0961143770734083E-2</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0.13400000000000001</v>
+        <v>6.0835166563764059E-2</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.13500000000000001</v>
+        <v>6.0709189356794022E-2</v>
       </c>
       <c r="AL8" s="1">
-        <v>0.13700000000000001</v>
+        <v>6.0583212149823984E-2</v>
       </c>
       <c r="AM8" s="1">
-        <v>0.13900000000000001</v>
+        <v>6.045723494285396E-2</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.14000000000000001</v>
+        <v>6.0331257735883922E-2</v>
       </c>
       <c r="AO8" s="1">
-        <v>0.14199999999999999</v>
+        <v>6.0205280528913899E-2</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.14399999999999999</v>
+        <v>6.0079303321943882E-2</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0.14499999999999999</v>
+        <v>5.9953326114973844E-2</v>
       </c>
       <c r="AR8" s="1">
-        <v>0.14699999999999999</v>
+        <v>5.9827348908003807E-2</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.14899999999999999</v>
+        <v>5.9701371701033769E-2</v>
       </c>
       <c r="AT8" s="1">
-        <v>0.15</v>
+        <v>5.9575394494063731E-2</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.15</v>
+        <v>5.9575394494063731E-2</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -2554,49 +2557,49 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.13755000000000001</v>
       </c>
       <c r="G14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.14005000000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.14365</v>
       </c>
       <c r="I14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.14910000000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.14374999999999999</v>
       </c>
       <c r="K14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.1429</v>
       </c>
       <c r="L14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.13850000000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.1386</v>
       </c>
       <c r="N14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.13785</v>
       </c>
       <c r="O14" s="1">
-        <v>0.27239999999999998</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="P14" s="1">
-        <v>0.2893102287382881</v>
+        <v>0.14405000000000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.28620579422845271</v>
+        <v>0.15789999999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>0.36583232656913367</v>
+        <v>0.21160000000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>0.44377798262936158</v>
+        <v>0.29275000000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.3408795727764326</v>
+        <v>0.30087957277643301</v>
       </c>
       <c r="U14" s="1">
         <v>0.29844643389338155</v>
@@ -2697,130 +2700,130 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>8.4990613559767822E-2</v>
       </c>
       <c r="G15" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0.10590453417395153</v>
       </c>
       <c r="H15" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0.11532321473423994</v>
       </c>
       <c r="I15" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>0.10835190786284538</v>
       </c>
       <c r="J15" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>9.9823181371245642E-2</v>
       </c>
       <c r="K15" s="1">
         <v>7.4162839057389032E-2</v>
       </c>
       <c r="L15" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>6.1703482095747671E-2</v>
       </c>
       <c r="M15" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>7.1492976851323026E-2</v>
       </c>
       <c r="N15" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>8.7067173053374719E-2</v>
       </c>
       <c r="O15" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>8.491645072071044E-2</v>
       </c>
       <c r="P15" s="1">
-        <v>5.9270793267966984E-2</v>
+        <v>6.2964250359723292E-2</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.6844213682472068E-2</v>
+        <v>8.9292058225096393E-2</v>
       </c>
       <c r="R15" s="1">
-        <v>9.987405364380024E-2</v>
+        <v>0.1670147135572401</v>
       </c>
       <c r="S15" s="1">
-        <v>8.9848186169571506E-2</v>
+        <v>0.189848186169571</v>
       </c>
       <c r="T15" s="1">
-        <v>8.0709805803888562E-2</v>
+        <v>0.18070980580388801</v>
       </c>
       <c r="U15" s="1">
-        <v>7.4545217103161129E-2</v>
+        <v>0.17454521710316101</v>
       </c>
       <c r="V15" s="1">
-        <v>6.968777153502935E-2</v>
+        <v>0.16968777153502901</v>
       </c>
       <c r="W15" s="1">
-        <v>6.5984808790841606E-2</v>
+        <v>0.15984808790841601</v>
       </c>
       <c r="X15" s="1">
-        <v>6.4308412595709019E-2</v>
+        <v>0.14308412595709</v>
       </c>
       <c r="Y15" s="1">
-        <v>6.32016756145867E-2</v>
+        <v>0.123201675614586</v>
       </c>
       <c r="Z15" s="1">
-        <v>6.2094938633464367E-2</v>
+        <v>0.10620949386334599</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.1968961426494336E-2</v>
+        <v>8.1968961426494305E-2</v>
       </c>
       <c r="AB15" s="1">
-        <v>6.1842984219524298E-2</v>
+        <v>8.1842984219524295E-2</v>
       </c>
       <c r="AC15" s="1">
-        <v>6.1717007012554274E-2</v>
+        <v>8.1717007012554299E-2</v>
       </c>
       <c r="AD15" s="1">
-        <v>6.1591029805584237E-2</v>
+        <v>8.1591029805584206E-2</v>
       </c>
       <c r="AE15" s="1">
-        <v>6.1465052598614199E-2</v>
+        <v>8.1465052598614196E-2</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.1339075391644175E-2</v>
+        <v>8.13390753916442E-2</v>
       </c>
       <c r="AG15" s="1">
-        <v>6.1213098184674145E-2</v>
+        <v>8.1213098184674107E-2</v>
       </c>
       <c r="AH15" s="1">
-        <v>6.1087120977704121E-2</v>
+        <v>8.1087120977704097E-2</v>
       </c>
       <c r="AI15" s="1">
-        <v>6.0961143770734083E-2</v>
+        <v>8.0961143770734101E-2</v>
       </c>
       <c r="AJ15" s="1">
-        <v>6.0835166563764059E-2</v>
+        <v>8.0835166563764105E-2</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.0709189356794022E-2</v>
+        <v>8.0709189356793998E-2</v>
       </c>
       <c r="AL15" s="1">
-        <v>6.0583212149823984E-2</v>
+        <v>8.0583212149824002E-2</v>
       </c>
       <c r="AM15" s="1">
-        <v>6.045723494285396E-2</v>
+        <v>8.0457234942854006E-2</v>
       </c>
       <c r="AN15" s="1">
-        <v>6.0331257735883922E-2</v>
+        <v>8.0331257735883899E-2</v>
       </c>
       <c r="AO15" s="1">
-        <v>6.0205280528913899E-2</v>
+        <v>8.0205280528913903E-2</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.0079303321943882E-2</v>
+        <v>8.0079303321943907E-2</v>
       </c>
       <c r="AQ15" s="1">
-        <v>5.9953326114973844E-2</v>
+        <v>7.9953326114973799E-2</v>
       </c>
       <c r="AR15" s="1">
-        <v>5.9827348908003807E-2</v>
+        <v>7.9827348908003803E-2</v>
       </c>
       <c r="AS15" s="1">
-        <v>5.9701371701033769E-2</v>
+        <v>7.9701371701033794E-2</v>
       </c>
       <c r="AT15" s="1">
-        <v>5.9575394494063731E-2</v>
+        <v>7.95753944940637E-2</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.9575394494063731E-2</v>
+        <v>7.95753944940637E-2</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -2858,58 +2861,58 @@
         <v>4.8598360515137926E-2</v>
       </c>
       <c r="L16" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>4.7383401502259476E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>6.8669483407889892E-2</v>
       </c>
       <c r="N16" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>7.0030237502313755E-2</v>
       </c>
       <c r="O16" s="1">
-        <v>4.8598360515137926E-2</v>
+        <v>6.074795064392241E-2</v>
       </c>
       <c r="P16" s="1">
-        <v>4.9794752608679535E-2</v>
+        <v>4.6605827734017266E-2</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.1039503251346256E-2</v>
+        <v>8.2034032549552813E-2</v>
       </c>
       <c r="R16" s="1">
-        <v>9.5513027767655176E-2</v>
+        <v>0.21485335183742479</v>
       </c>
       <c r="S16" s="1">
-        <v>0.14900315456786425</v>
+        <v>0.29003154567863998</v>
       </c>
       <c r="T16" s="1">
-        <v>0.11232937738230503</v>
+        <v>0.31232937738230498</v>
       </c>
       <c r="U16" s="1">
-        <v>8.943430122584814E-2</v>
+        <v>0.28943430122584801</v>
       </c>
       <c r="V16" s="1">
-        <v>7.5667559065261236E-2</v>
+        <v>0.27566755906526103</v>
       </c>
       <c r="W16" s="1">
-        <v>7.122030604096162E-2</v>
+        <v>0.25122030604096102</v>
       </c>
       <c r="X16" s="1">
-        <v>6.6773053016662018E-2</v>
+        <v>0.23677305301666199</v>
       </c>
       <c r="Y16" s="1">
-        <v>6.2325799992362409E-2</v>
+        <v>0.19232579999236199</v>
       </c>
       <c r="Z16" s="1">
-        <v>5.78785469680628E-2</v>
+        <v>0.157878546968062</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.7608665017664769E-2</v>
+        <v>0.12760866501766399</v>
       </c>
       <c r="AB16" s="1">
-        <v>5.7338783067266745E-2</v>
+        <v>0.10733878306726601</v>
       </c>
       <c r="AC16" s="1">
-        <v>5.7068901116868728E-2</v>
+        <v>8.7068901116868699E-2</v>
       </c>
       <c r="AD16" s="1">
         <v>5.6799019166470698E-2</v>
@@ -2983,130 +2986,130 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.1750000000000002E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.5649999999999996E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.8100000000000004E-2</v>
       </c>
       <c r="I17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>5.0750000000000003E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>5.1150000000000001E-2</v>
       </c>
       <c r="K17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>5.11E-2</v>
       </c>
       <c r="L17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="M17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.5350000000000001E-2</v>
       </c>
       <c r="N17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.5149999999999996E-2</v>
       </c>
       <c r="O17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.5149999999999996E-2</v>
       </c>
       <c r="P17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>4.5449999999999997E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>4.5399544155988694E-2</v>
+        <v>6.5099999999999991E-2</v>
       </c>
       <c r="S17" s="1">
-        <v>3.9178703664221291E-2</v>
+        <v>9.4950000000000007E-2</v>
       </c>
       <c r="T17" s="1">
-        <v>3.3508530309731971E-2</v>
+        <v>0.10350853030973201</v>
       </c>
       <c r="U17" s="1">
-        <v>2.9683532312984855E-2</v>
+        <v>9.6835323129848994E-2</v>
       </c>
       <c r="V17" s="1">
-        <v>2.6669589214847626E-2</v>
+        <v>8.9695892148475995E-2</v>
       </c>
       <c r="W17" s="1">
-        <v>2.4371978495599467E-2</v>
+        <v>8.2719784955994996E-2</v>
       </c>
       <c r="X17" s="1">
-        <v>2.3331809816157813E-2</v>
+        <v>7.5318098161578001E-2</v>
       </c>
       <c r="Y17" s="1">
-        <v>2.2645102731349488E-2</v>
+        <v>6.8645102731349494E-2</v>
       </c>
       <c r="Z17" s="1">
-        <v>2.1958395646541159E-2</v>
+        <v>6.4958395646541198E-2</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.1880229431779856E-2</v>
+        <v>6.1880229431779898E-2</v>
       </c>
       <c r="AB17" s="1">
-        <v>2.1802063217018549E-2</v>
+        <v>6.1802063217018498E-2</v>
       </c>
       <c r="AC17" s="1">
-        <v>2.1723897002257249E-2</v>
+        <v>6.1723897002257201E-2</v>
       </c>
       <c r="AD17" s="1">
-        <v>2.1645730787495942E-2</v>
+        <v>6.1645730787495898E-2</v>
       </c>
       <c r="AE17" s="1">
-        <v>2.1567564572734638E-2</v>
+        <v>6.1567564572734601E-2</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.1489398357973338E-2</v>
+        <v>6.1489398357973298E-2</v>
       </c>
       <c r="AG17" s="1">
-        <v>2.1411232143212035E-2</v>
+        <v>6.1411232143212001E-2</v>
       </c>
       <c r="AH17" s="1">
-        <v>2.1333065928450728E-2</v>
+        <v>6.1333065928450697E-2</v>
       </c>
       <c r="AI17" s="1">
-        <v>2.1254899713689424E-2</v>
+        <v>6.1254899713689401E-2</v>
       </c>
       <c r="AJ17" s="1">
-        <v>2.1176733498928124E-2</v>
+        <v>6.1176733498928097E-2</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.1098567284166821E-2</v>
+        <v>6.1098567284166801E-2</v>
       </c>
       <c r="AL17" s="1">
-        <v>2.1020401069405517E-2</v>
+        <v>6.1020401069405497E-2</v>
       </c>
       <c r="AM17" s="1">
-        <v>2.0942234854644214E-2</v>
+        <v>6.0942234854644201E-2</v>
       </c>
       <c r="AN17" s="1">
-        <v>2.0864068639882907E-2</v>
+        <v>6.0864068639882897E-2</v>
       </c>
       <c r="AO17" s="1">
-        <v>2.0785902425121603E-2</v>
+        <v>6.07859024251216E-2</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.0707736210360303E-2</v>
+        <v>6.0707736210360297E-2</v>
       </c>
       <c r="AQ17" s="1">
-        <v>2.0629569995598999E-2</v>
+        <v>6.0629569995599E-2</v>
       </c>
       <c r="AR17" s="1">
-        <v>2.0551403780837692E-2</v>
+        <v>6.0551403780837697E-2</v>
       </c>
       <c r="AS17" s="1">
-        <v>2.0473237566076389E-2</v>
+        <v>6.04732375660764E-2</v>
       </c>
       <c r="AT17" s="1">
-        <v>2.0395071351315082E-2</v>
+        <v>6.0395071351315097E-2</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.0395071351315082E-2</v>
+        <v>6.0395071351315097E-2</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -3269,130 +3272,130 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5.4404000000000001E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5.2780000000000007E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5.3476000000000003E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>5.1678000000000002E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4.6226000000000003E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.6342000000000008E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>7.5574000000000002E-2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>7.2658491665106781E-2</v>
+      </c>
+      <c r="T19" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="G19" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K19" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="L19" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="M19" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="N19" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="U19" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="V19" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="R19" s="1">
+      <c r="W19" s="1">
         <v>0.104</v>
       </c>
-      <c r="S19" s="1">
+      <c r="X19" s="1">
         <v>0.106</v>
       </c>
-      <c r="T19" s="1">
+      <c r="Y19" s="1">
         <v>0.107</v>
       </c>
-      <c r="U19" s="1">
+      <c r="Z19" s="1">
         <v>0.108</v>
       </c>
-      <c r="V19" s="1">
+      <c r="AA19" s="1">
         <v>0.109</v>
       </c>
-      <c r="W19" s="1">
+      <c r="AB19" s="1">
         <v>0.111</v>
       </c>
-      <c r="X19" s="1">
+      <c r="AC19" s="1">
         <v>0.113</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AD19" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AE19" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AF19" s="1">
         <v>0.12</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AG19" s="1">
         <v>0.121</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AH19" s="1">
         <v>0.122</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AI19" s="1">
         <v>0.123</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AJ19" s="1">
         <v>0.124</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AK19" s="1">
         <v>0.127</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AL19" s="1">
         <v>0.129</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AM19" s="1">
         <v>0.13</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AN19" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AO19" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AP19" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AQ19" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AR19" s="1">
         <v>0.13900000000000001</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AS19" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AT19" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AU19" s="1">
         <v>0.14399999999999999</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AR19" s="1">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="AS19" s="1">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="AT19" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AU19" s="1">
-        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
@@ -3412,43 +3415,43 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>6.4447507140871066E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>6.8378137610912687E-2</v>
       </c>
       <c r="H20" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>7.431116473550381E-2</v>
       </c>
       <c r="I20" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>7.6684375585340261E-2</v>
       </c>
       <c r="J20" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>7.6165235711938534E-2</v>
       </c>
       <c r="K20" s="1">
         <v>7.4162839057389032E-2</v>
       </c>
       <c r="L20" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>7.0603022782634361E-2</v>
       </c>
       <c r="M20" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>6.8378137610912687E-2</v>
       </c>
       <c r="N20" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>6.9638905874888302E-2</v>
       </c>
       <c r="O20" s="1">
-        <v>7.4162839057389032E-2</v>
+        <v>7.275374511529864E-2</v>
       </c>
       <c r="P20" s="1">
-        <v>5.9270793267966984E-2</v>
+        <v>7.1567139690380407E-2</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.6844213682472068E-2</v>
+        <v>7.238293092001169E-2</v>
       </c>
       <c r="R20" s="1">
-        <v>9.987405364380024E-2</v>
+        <v>8.9366221064153789E-2</v>
       </c>
       <c r="S20" s="1">
         <v>8.9848186169571506E-2</v>
@@ -4252,6 +4255,35 @@
       <c r="AU25" s="1">
         <v>0.29351808242999999</v>
       </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
@@ -4259,7 +4291,6 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4308,9 +4339,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4319,6 +4352,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
